--- a/Option_Data.xlsx
+++ b/Option_Data.xlsx
@@ -7,9 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY_C" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLK_C" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSFT_C" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY Calls" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY Puts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLK Calls" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLK Puts" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLF Calls" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLF Puts" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLY Calls" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLY Puts" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLV Calls" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLV Puts" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLI Calls" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLI Puts" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1196,6 +1205,2328 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/20/15 P68</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/17/15 P69</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/15/15 P72</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/19/15 P71</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/17/15 P72</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/21/15 P75</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/18/15 P75</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/16/15 P76</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 11/20/15 P68</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 12/18/15 P66</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr"/>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 1/15/16 P72</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 2/19/16 P72</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/18/16 P70</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr"/>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/15/16 P66</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/20/16 P67</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr"/>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/17/16 P68</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/15/16 P70</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr"/>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/19/16 P71</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr"/>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/16/16 P72</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr"/>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/21/16 P75</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 11/18/16 P72</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr"/>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 12/16/16 P72</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr"/>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 1/20/17 P67</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 2/17/17 P68</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/17/17 P69</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr"/>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/21/17 P71</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr"/>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/19/17 P75</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr"/>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/16/17 P74</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/21/17 P75</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr"/>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/18/17 P76</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr"/>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/15/17 P79</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr"/>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/20/17 P79</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr"/>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 11/17/17 P81</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr"/>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 12/15/17 P82</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr"/>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 1/19/18 P81</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr"/>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 2/16/18 P83</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr"/>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/16/18 P83</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr"/>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/20/18 P88</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr"/>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/18/18 P82</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr"/>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/15/18 P79</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/20/18 P82</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr"/>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/17/18 P83</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr"/>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/21/18 P83</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr"/>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/19/18 P88</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr"/>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 11/16/18 P92</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr"/>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 12/21/18 P95</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr"/>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 1/18/19 P89</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr"/>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 2/15/19 P95</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr"/>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/15/19 P85</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr"/>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/18/19 P90</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr"/>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/17/19 P92</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr"/>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/21/19 P91</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr"/>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/19/19 P89</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr"/>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/16/19 P87</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr"/>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/20/19 P93</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr"/>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/18/19 P91</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr"/>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 11/15/19 P90</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr"/>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 12/20/19 P89</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr"/>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 1/17/20 P94</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr"/>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 2/21/20 P99</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr"/>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/20/20 P102</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr"/>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/17/20 P100</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr"/>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/15/20 P96</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr"/>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/19/20 P85</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr"/>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/17/20 P97</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr"/>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/21/20 P101</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr"/>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/18/20 P100</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr"/>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/16/20 P106</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>BDH("XLV 3/20/15 P68 Equity","PX_LAST",20150102,20150320)</f>
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2">
+        <f>BDH("XLV 4/17/15 P69 Equity","PX_LAST",20150202,20150417)</f>
+        <v/>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2">
+        <f>BDH("XLV 5/15/15 P72 Equity","PX_LAST",20150302,20150515)</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2">
+        <f>BDH("XLV 6/19/15 P71 Equity","PX_LAST",20150401,20150619)</f>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2">
+        <f>BDH("XLV 7/17/15 P72 Equity","PX_LAST",20150501,20150717)</f>
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2">
+        <f>BDH("XLV 8/21/15 P75 Equity","PX_LAST",20150601,20150821)</f>
+        <v/>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2">
+        <f>BDH("XLV 9/18/15 P75 Equity","PX_LAST",20150701,20150918)</f>
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2">
+        <f>BDH("XLV 10/16/15 P76 Equity","PX_LAST",20150803,20151016)</f>
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2">
+        <f>BDH("XLV 11/20/15 P68 Equity","PX_LAST",20150901,20151120)</f>
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2">
+        <f>BDH("XLV 12/18/15 P66 Equity","PX_LAST",20151001,20151218)</f>
+        <v/>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2">
+        <f>BDH("XLV 1/15/16 P72 Equity","PX_LAST",20151102,20160115)</f>
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2">
+        <f>BDH("XLV 2/19/16 P72 Equity","PX_LAST",20151201,20160219)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2">
+        <f>BDH("XLV 3/18/16 P70 Equity","PX_LAST",20160104,20160318)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2">
+        <f>BDH("XLV 4/15/16 P66 Equity","PX_LAST",20160201,20160415)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2">
+        <f>BDH("XLV 5/20/16 P67 Equity","PX_LAST",20160301,20160520)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2">
+        <f>BDH("XLV 6/17/16 P68 Equity","PX_LAST",20160401,20160617)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2">
+        <f>BDH("XLV 7/15/16 P70 Equity","PX_LAST",20160502,20160715)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2">
+        <f>BDH("XLV 8/19/16 P71 Equity","PX_LAST",20160601,20160819)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2">
+        <f>BDH("XLV 9/16/16 P72 Equity","PX_LAST",20160701,20160916)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2">
+        <f>BDH("XLV 10/21/16 P75 Equity","PX_LAST",20160801,20161021)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2">
+        <f>BDH("XLV 11/18/16 P72 Equity","PX_LAST",20160901,20161118)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2">
+        <f>BDH("XLV 12/16/16 P72 Equity","PX_LAST",20161003,20161216)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2">
+        <f>BDH("XLV 1/20/17 P67 Equity","PX_LAST",20161101,20170120)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2">
+        <f>BDH("XLV 2/17/17 P68 Equity","PX_LAST",20161201,20170217)</f>
+        <v/>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2">
+        <f>BDH("XLV 3/17/17 P69 Equity","PX_LAST",20170103,20170317)</f>
+        <v/>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2">
+        <f>BDH("XLV 4/21/17 P71 Equity","PX_LAST",20170201,20170421)</f>
+        <v/>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2">
+        <f>BDH("XLV 5/19/17 P75 Equity","PX_LAST",20170301,20170519)</f>
+        <v/>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2">
+        <f>BDH("XLV 6/16/17 P74 Equity","PX_LAST",20170403,20170616)</f>
+        <v/>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2">
+        <f>BDH("XLV 7/21/17 P75 Equity","PX_LAST",20170501,20170721)</f>
+        <v/>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2">
+        <f>BDH("XLV 8/18/17 P76 Equity","PX_LAST",20170601,20170818)</f>
+        <v/>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2">
+        <f>BDH("XLV 9/15/17 P79 Equity","PX_LAST",20170703,20170915)</f>
+        <v/>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2">
+        <f>BDH("XLV 10/20/17 P79 Equity","PX_LAST",20170801,20171020)</f>
+        <v/>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2">
+        <f>BDH("XLV 11/17/17 P81 Equity","PX_LAST",20170901,20171117)</f>
+        <v/>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2">
+        <f>BDH("XLV 12/15/17 P82 Equity","PX_LAST",20171002,20171215)</f>
+        <v/>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2">
+        <f>BDH("XLV 1/19/18 P81 Equity","PX_LAST",20171101,20180119)</f>
+        <v/>
+      </c>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2">
+        <f>BDH("XLV 2/16/18 P83 Equity","PX_LAST",20171201,20180216)</f>
+        <v/>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2">
+        <f>BDH("XLV 3/16/18 P83 Equity","PX_LAST",20180102,20180316)</f>
+        <v/>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2">
+        <f>BDH("XLV 4/20/18 P88 Equity","PX_LAST",20180201,20180420)</f>
+        <v/>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2">
+        <f>BDH("XLV 5/18/18 P82 Equity","PX_LAST",20180301,20180518)</f>
+        <v/>
+      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2">
+        <f>BDH("XLV 6/15/18 P79 Equity","PX_LAST",20180402,20180615)</f>
+        <v/>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2">
+        <f>BDH("XLV 7/20/18 P82 Equity","PX_LAST",20180501,20180720)</f>
+        <v/>
+      </c>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2">
+        <f>BDH("XLV 8/17/18 P83 Equity","PX_LAST",20180601,20180817)</f>
+        <v/>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2">
+        <f>BDH("XLV 9/21/18 P83 Equity","PX_LAST",20180702,20180921)</f>
+        <v/>
+      </c>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2">
+        <f>BDH("XLV 10/19/18 P88 Equity","PX_LAST",20180801,20181019)</f>
+        <v/>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2">
+        <f>BDH("XLV 11/16/18 P92 Equity","PX_LAST",20180904,20181116)</f>
+        <v/>
+      </c>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2">
+        <f>BDH("XLV 12/21/18 P95 Equity","PX_LAST",20181001,20181221)</f>
+        <v/>
+      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2">
+        <f>BDH("XLV 1/18/19 P89 Equity","PX_LAST",20181101,20190118)</f>
+        <v/>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2">
+        <f>BDH("XLV 2/15/19 P95 Equity","PX_LAST",20181203,20190215)</f>
+        <v/>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2">
+        <f>BDH("XLV 3/15/19 P85 Equity","PX_LAST",20190102,20190315)</f>
+        <v/>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2">
+        <f>BDH("XLV 4/18/19 P90 Equity","PX_LAST",20190201,20190418)</f>
+        <v/>
+      </c>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2">
+        <f>BDH("XLV 5/17/19 P92 Equity","PX_LAST",20190301,20190517)</f>
+        <v/>
+      </c>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2">
+        <f>BDH("XLV 6/21/19 P91 Equity","PX_LAST",20190401,20190621)</f>
+        <v/>
+      </c>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2">
+        <f>BDH("XLV 7/19/19 P89 Equity","PX_LAST",20190501,20190719)</f>
+        <v/>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2">
+        <f>BDH("XLV 8/16/19 P87 Equity","PX_LAST",20190603,20190816)</f>
+        <v/>
+      </c>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2">
+        <f>BDH("XLV 9/20/19 P93 Equity","PX_LAST",20190701,20190920)</f>
+        <v/>
+      </c>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2">
+        <f>BDH("XLV 10/18/19 P91 Equity","PX_LAST",20190801,20191018)</f>
+        <v/>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2">
+        <f>BDH("XLV 11/15/19 P90 Equity","PX_LAST",20190903,20191115)</f>
+        <v/>
+      </c>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2">
+        <f>BDH("XLV 12/20/19 P89 Equity","PX_LAST",20191001,20191220)</f>
+        <v/>
+      </c>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2">
+        <f>BDH("XLV 1/17/20 P94 Equity","PX_LAST",20191101,20200117)</f>
+        <v/>
+      </c>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2">
+        <f>BDH("XLV 2/21/20 P99 Equity","PX_LAST",20191202,20200221)</f>
+        <v/>
+      </c>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2">
+        <f>BDH("XLV 3/20/20 P102 Equity","PX_LAST",20200102,20200320)</f>
+        <v/>
+      </c>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2">
+        <f>BDH("XLV 4/17/20 P100 Equity","PX_LAST",20200203,20200417)</f>
+        <v/>
+      </c>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2">
+        <f>BDH("XLV 5/15/20 P96 Equity","PX_LAST",20200302,20200515)</f>
+        <v/>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2">
+        <f>BDH("XLV 6/19/20 P85 Equity","PX_LAST",20200401,20200619)</f>
+        <v/>
+      </c>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2">
+        <f>BDH("XLV 7/17/20 P97 Equity","PX_LAST",20200501,20200717)</f>
+        <v/>
+      </c>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2">
+        <f>BDH("XLV 8/21/20 P101 Equity","PX_LAST",20200601,20200821)</f>
+        <v/>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2">
+        <f>BDH("XLV 9/18/20 P100 Equity","PX_LAST",20200701,20200918)</f>
+        <v/>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2">
+        <f>BDH("XLV 10/16/20 P106 Equity","PX_LAST",20200803,20201016)</f>
+        <v/>
+      </c>
+      <c r="EG2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/20/15 C56</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/17/15 C55</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/15/15 C58</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/19/15 C55</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/17/15 C56</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/21/15 C56</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/18/15 C54</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/16/15 C53</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 11/20/15 C49</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 12/18/15 C49</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr"/>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 1/15/16 C54</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 2/19/16 C55</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/18/16 C52</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr"/>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/15/16 C49</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/20/16 C53</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr"/>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/17/16 C55</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/15/16 C56</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr"/>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/19/16 C55</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr"/>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/16/16 C56</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr"/>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/21/16 C57</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 11/18/16 C58</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr"/>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 12/16/16 C58</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr"/>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 1/20/17 C56</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 2/17/17 C62</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/17/17 C62</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr"/>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/21/17 C63</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr"/>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/19/17 C66</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr"/>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/16/17 C64</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/21/17 C66</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr"/>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/18/17 C67</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr"/>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/15/17 C68</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr"/>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/20/17 C68</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr"/>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 11/17/17 C68</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr"/>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 12/15/17 C71</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr"/>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 1/19/18 C71</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr"/>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 2/16/18 C73</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr"/>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/16/18 C76</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr"/>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/20/18 C79</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr"/>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/18/18 C75</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr"/>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/15/18 C72</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/20/18 C71</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr"/>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/17/18 C75</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr"/>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/21/18 C71</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr"/>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/19/18 C75</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr"/>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 11/16/18 C77</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr"/>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 12/21/18 C79</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr"/>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 1/18/19 C71</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr"/>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 2/15/19 C73</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr"/>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/15/19 C64</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr"/>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/18/19 C71</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr"/>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/17/19 C76</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr"/>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/21/19 C76</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr"/>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/19/19 C77</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr"/>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/16/19 C72</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr"/>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/20/19 C77</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr"/>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/18/19 C76</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr"/>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 11/15/19 C74</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr"/>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 12/20/19 C75</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr"/>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 1/17/20 C80</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr"/>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 2/21/20 C80</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr"/>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/20/20 C83</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr"/>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/17/20 C81</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr"/>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/15/20 C75</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr"/>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/19/20 C56</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr"/>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/17/20 C62</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr"/>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/21/20 C67</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr"/>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/18/20 C68</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr"/>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/16/20 C72</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>BDH("XLI 3/20/15 C56 Equity","PX_LAST",20150102,20150320)</f>
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2">
+        <f>BDH("XLI 4/17/15 C55 Equity","PX_LAST",20150202,20150417)</f>
+        <v/>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2">
+        <f>BDH("XLI 5/15/15 C58 Equity","PX_LAST",20150302,20150515)</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2">
+        <f>BDH("XLI 6/19/15 C55 Equity","PX_LAST",20150401,20150619)</f>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2">
+        <f>BDH("XLI 7/17/15 C56 Equity","PX_LAST",20150501,20150717)</f>
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2">
+        <f>BDH("XLI 8/21/15 C56 Equity","PX_LAST",20150601,20150821)</f>
+        <v/>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2">
+        <f>BDH("XLI 9/18/15 C54 Equity","PX_LAST",20150701,20150918)</f>
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2">
+        <f>BDH("XLI 10/16/15 C53 Equity","PX_LAST",20150803,20151016)</f>
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2">
+        <f>BDH("XLI 11/20/15 C49 Equity","PX_LAST",20150901,20151120)</f>
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2">
+        <f>BDH("XLI 12/18/15 C49 Equity","PX_LAST",20151001,20151218)</f>
+        <v/>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2">
+        <f>BDH("XLI 1/15/16 C54 Equity","PX_LAST",20151102,20160115)</f>
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2">
+        <f>BDH("XLI 2/19/16 C55 Equity","PX_LAST",20151201,20160219)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2">
+        <f>BDH("XLI 3/18/16 C52 Equity","PX_LAST",20160104,20160318)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2">
+        <f>BDH("XLI 4/15/16 C49 Equity","PX_LAST",20160201,20160415)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2">
+        <f>BDH("XLI 5/20/16 C53 Equity","PX_LAST",20160301,20160520)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2">
+        <f>BDH("XLI 6/17/16 C55 Equity","PX_LAST",20160401,20160617)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2">
+        <f>BDH("XLI 7/15/16 C56 Equity","PX_LAST",20160502,20160715)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2">
+        <f>BDH("XLI 8/19/16 C55 Equity","PX_LAST",20160601,20160819)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2">
+        <f>BDH("XLI 9/16/16 C56 Equity","PX_LAST",20160701,20160916)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2">
+        <f>BDH("XLI 10/21/16 C57 Equity","PX_LAST",20160801,20161021)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2">
+        <f>BDH("XLI 11/18/16 C58 Equity","PX_LAST",20160901,20161118)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2">
+        <f>BDH("XLI 12/16/16 C58 Equity","PX_LAST",20161003,20161216)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2">
+        <f>BDH("XLI 1/20/17 C56 Equity","PX_LAST",20161101,20170120)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2">
+        <f>BDH("XLI 2/17/17 C62 Equity","PX_LAST",20161201,20170217)</f>
+        <v/>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2">
+        <f>BDH("XLI 3/17/17 C62 Equity","PX_LAST",20170103,20170317)</f>
+        <v/>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2">
+        <f>BDH("XLI 4/21/17 C63 Equity","PX_LAST",20170201,20170421)</f>
+        <v/>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2">
+        <f>BDH("XLI 5/19/17 C66 Equity","PX_LAST",20170301,20170519)</f>
+        <v/>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2">
+        <f>BDH("XLI 6/16/17 C64 Equity","PX_LAST",20170403,20170616)</f>
+        <v/>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2">
+        <f>BDH("XLI 7/21/17 C66 Equity","PX_LAST",20170501,20170721)</f>
+        <v/>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2">
+        <f>BDH("XLI 8/18/17 C67 Equity","PX_LAST",20170601,20170818)</f>
+        <v/>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2">
+        <f>BDH("XLI 9/15/17 C68 Equity","PX_LAST",20170703,20170915)</f>
+        <v/>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2">
+        <f>BDH("XLI 10/20/17 C68 Equity","PX_LAST",20170801,20171020)</f>
+        <v/>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2">
+        <f>BDH("XLI 11/17/17 C68 Equity","PX_LAST",20170901,20171117)</f>
+        <v/>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2">
+        <f>BDH("XLI 12/15/17 C71 Equity","PX_LAST",20171002,20171215)</f>
+        <v/>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2">
+        <f>BDH("XLI 1/19/18 C71 Equity","PX_LAST",20171101,20180119)</f>
+        <v/>
+      </c>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2">
+        <f>BDH("XLI 2/16/18 C73 Equity","PX_LAST",20171201,20180216)</f>
+        <v/>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2">
+        <f>BDH("XLI 3/16/18 C76 Equity","PX_LAST",20180102,20180316)</f>
+        <v/>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2">
+        <f>BDH("XLI 4/20/18 C79 Equity","PX_LAST",20180201,20180420)</f>
+        <v/>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2">
+        <f>BDH("XLI 5/18/18 C75 Equity","PX_LAST",20180301,20180518)</f>
+        <v/>
+      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2">
+        <f>BDH("XLI 6/15/18 C72 Equity","PX_LAST",20180402,20180615)</f>
+        <v/>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2">
+        <f>BDH("XLI 7/20/18 C71 Equity","PX_LAST",20180501,20180720)</f>
+        <v/>
+      </c>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2">
+        <f>BDH("XLI 8/17/18 C75 Equity","PX_LAST",20180601,20180817)</f>
+        <v/>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2">
+        <f>BDH("XLI 9/21/18 C71 Equity","PX_LAST",20180702,20180921)</f>
+        <v/>
+      </c>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2">
+        <f>BDH("XLI 10/19/18 C75 Equity","PX_LAST",20180801,20181019)</f>
+        <v/>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2">
+        <f>BDH("XLI 11/16/18 C77 Equity","PX_LAST",20180904,20181116)</f>
+        <v/>
+      </c>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2">
+        <f>BDH("XLI 12/21/18 C79 Equity","PX_LAST",20181001,20181221)</f>
+        <v/>
+      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2">
+        <f>BDH("XLI 1/18/19 C71 Equity","PX_LAST",20181101,20190118)</f>
+        <v/>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2">
+        <f>BDH("XLI 2/15/19 C73 Equity","PX_LAST",20181203,20190215)</f>
+        <v/>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2">
+        <f>BDH("XLI 3/15/19 C64 Equity","PX_LAST",20190102,20190315)</f>
+        <v/>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2">
+        <f>BDH("XLI 4/18/19 C71 Equity","PX_LAST",20190201,20190418)</f>
+        <v/>
+      </c>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2">
+        <f>BDH("XLI 5/17/19 C76 Equity","PX_LAST",20190301,20190517)</f>
+        <v/>
+      </c>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2">
+        <f>BDH("XLI 6/21/19 C76 Equity","PX_LAST",20190401,20190621)</f>
+        <v/>
+      </c>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2">
+        <f>BDH("XLI 7/19/19 C77 Equity","PX_LAST",20190501,20190719)</f>
+        <v/>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2">
+        <f>BDH("XLI 8/16/19 C72 Equity","PX_LAST",20190603,20190816)</f>
+        <v/>
+      </c>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2">
+        <f>BDH("XLI 9/20/19 C77 Equity","PX_LAST",20190701,20190920)</f>
+        <v/>
+      </c>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2">
+        <f>BDH("XLI 10/18/19 C76 Equity","PX_LAST",20190801,20191018)</f>
+        <v/>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2">
+        <f>BDH("XLI 11/15/19 C74 Equity","PX_LAST",20190903,20191115)</f>
+        <v/>
+      </c>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2">
+        <f>BDH("XLI 12/20/19 C75 Equity","PX_LAST",20191001,20191220)</f>
+        <v/>
+      </c>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2">
+        <f>BDH("XLI 1/17/20 C80 Equity","PX_LAST",20191101,20200117)</f>
+        <v/>
+      </c>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2">
+        <f>BDH("XLI 2/21/20 C80 Equity","PX_LAST",20191202,20200221)</f>
+        <v/>
+      </c>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2">
+        <f>BDH("XLI 3/20/20 C83 Equity","PX_LAST",20200102,20200320)</f>
+        <v/>
+      </c>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2">
+        <f>BDH("XLI 4/17/20 C81 Equity","PX_LAST",20200203,20200417)</f>
+        <v/>
+      </c>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2">
+        <f>BDH("XLI 5/15/20 C75 Equity","PX_LAST",20200302,20200515)</f>
+        <v/>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2">
+        <f>BDH("XLI 6/19/20 C56 Equity","PX_LAST",20200401,20200619)</f>
+        <v/>
+      </c>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2">
+        <f>BDH("XLI 7/17/20 C62 Equity","PX_LAST",20200501,20200717)</f>
+        <v/>
+      </c>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2">
+        <f>BDH("XLI 8/21/20 C67 Equity","PX_LAST",20200601,20200821)</f>
+        <v/>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2">
+        <f>BDH("XLI 9/18/20 C68 Equity","PX_LAST",20200701,20200918)</f>
+        <v/>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2">
+        <f>BDH("XLI 10/16/20 C72 Equity","PX_LAST",20200803,20201016)</f>
+        <v/>
+      </c>
+      <c r="EG2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/20/15 P56</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/17/15 P55</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/15/15 P58</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/19/15 P55</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/17/15 P56</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/21/15 P56</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/18/15 P54</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/16/15 P53</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 11/20/15 P49</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 12/18/15 P49</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr"/>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 1/15/16 P54</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 2/19/16 P55</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/18/16 P52</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr"/>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/15/16 P49</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/20/16 P53</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr"/>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/17/16 P55</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/15/16 P56</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr"/>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/19/16 P55</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr"/>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/16/16 P56</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr"/>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/21/16 P57</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 11/18/16 P58</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr"/>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 12/16/16 P58</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr"/>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 1/20/17 P56</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 2/17/17 P62</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/17/17 P62</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr"/>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/21/17 P63</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr"/>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/19/17 P66</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr"/>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/16/17 P64</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/21/17 P66</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr"/>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/18/17 P67</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr"/>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/15/17 P68</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr"/>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/20/17 P68</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr"/>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 11/17/17 P68</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr"/>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 12/15/17 P71</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr"/>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 1/19/18 P71</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr"/>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 2/16/18 P73</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr"/>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/16/18 P76</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr"/>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/20/18 P79</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr"/>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/18/18 P75</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr"/>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/15/18 P72</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/20/18 P71</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr"/>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/17/18 P75</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr"/>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/21/18 P71</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr"/>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/19/18 P75</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr"/>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 11/16/18 P77</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr"/>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 12/21/18 P79</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr"/>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 1/18/19 P71</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr"/>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 2/15/19 P73</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr"/>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/15/19 P64</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr"/>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/18/19 P71</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr"/>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/17/19 P76</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr"/>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/21/19 P76</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr"/>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/19/19 P77</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr"/>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/16/19 P72</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr"/>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/20/19 P77</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr"/>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/18/19 P76</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr"/>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 11/15/19 P74</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr"/>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 12/20/19 P75</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr"/>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 1/17/20 P80</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr"/>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 2/21/20 P80</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr"/>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 3/20/20 P83</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr"/>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 4/17/20 P81</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr"/>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 5/15/20 P75</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr"/>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 6/19/20 P56</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr"/>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 7/17/20 P62</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr"/>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 8/21/20 P67</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr"/>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 9/18/20 P68</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr"/>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>XLI 10/16/20 P72</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>BDH("XLI 3/20/15 P56 Equity","PX_LAST",20150102,20150320)</f>
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2">
+        <f>BDH("XLI 4/17/15 P55 Equity","PX_LAST",20150202,20150417)</f>
+        <v/>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2">
+        <f>BDH("XLI 5/15/15 P58 Equity","PX_LAST",20150302,20150515)</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2">
+        <f>BDH("XLI 6/19/15 P55 Equity","PX_LAST",20150401,20150619)</f>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2">
+        <f>BDH("XLI 7/17/15 P56 Equity","PX_LAST",20150501,20150717)</f>
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2">
+        <f>BDH("XLI 8/21/15 P56 Equity","PX_LAST",20150601,20150821)</f>
+        <v/>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2">
+        <f>BDH("XLI 9/18/15 P54 Equity","PX_LAST",20150701,20150918)</f>
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2">
+        <f>BDH("XLI 10/16/15 P53 Equity","PX_LAST",20150803,20151016)</f>
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2">
+        <f>BDH("XLI 11/20/15 P49 Equity","PX_LAST",20150901,20151120)</f>
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2">
+        <f>BDH("XLI 12/18/15 P49 Equity","PX_LAST",20151001,20151218)</f>
+        <v/>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2">
+        <f>BDH("XLI 1/15/16 P54 Equity","PX_LAST",20151102,20160115)</f>
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2">
+        <f>BDH("XLI 2/19/16 P55 Equity","PX_LAST",20151201,20160219)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2">
+        <f>BDH("XLI 3/18/16 P52 Equity","PX_LAST",20160104,20160318)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2">
+        <f>BDH("XLI 4/15/16 P49 Equity","PX_LAST",20160201,20160415)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2">
+        <f>BDH("XLI 5/20/16 P53 Equity","PX_LAST",20160301,20160520)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2">
+        <f>BDH("XLI 6/17/16 P55 Equity","PX_LAST",20160401,20160617)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2">
+        <f>BDH("XLI 7/15/16 P56 Equity","PX_LAST",20160502,20160715)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2">
+        <f>BDH("XLI 8/19/16 P55 Equity","PX_LAST",20160601,20160819)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2">
+        <f>BDH("XLI 9/16/16 P56 Equity","PX_LAST",20160701,20160916)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2">
+        <f>BDH("XLI 10/21/16 P57 Equity","PX_LAST",20160801,20161021)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2">
+        <f>BDH("XLI 11/18/16 P58 Equity","PX_LAST",20160901,20161118)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2">
+        <f>BDH("XLI 12/16/16 P58 Equity","PX_LAST",20161003,20161216)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2">
+        <f>BDH("XLI 1/20/17 P56 Equity","PX_LAST",20161101,20170120)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2">
+        <f>BDH("XLI 2/17/17 P62 Equity","PX_LAST",20161201,20170217)</f>
+        <v/>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2">
+        <f>BDH("XLI 3/17/17 P62 Equity","PX_LAST",20170103,20170317)</f>
+        <v/>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2">
+        <f>BDH("XLI 4/21/17 P63 Equity","PX_LAST",20170201,20170421)</f>
+        <v/>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2">
+        <f>BDH("XLI 5/19/17 P66 Equity","PX_LAST",20170301,20170519)</f>
+        <v/>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2">
+        <f>BDH("XLI 6/16/17 P64 Equity","PX_LAST",20170403,20170616)</f>
+        <v/>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2">
+        <f>BDH("XLI 7/21/17 P66 Equity","PX_LAST",20170501,20170721)</f>
+        <v/>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2">
+        <f>BDH("XLI 8/18/17 P67 Equity","PX_LAST",20170601,20170818)</f>
+        <v/>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2">
+        <f>BDH("XLI 9/15/17 P68 Equity","PX_LAST",20170703,20170915)</f>
+        <v/>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2">
+        <f>BDH("XLI 10/20/17 P68 Equity","PX_LAST",20170801,20171020)</f>
+        <v/>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2">
+        <f>BDH("XLI 11/17/17 P68 Equity","PX_LAST",20170901,20171117)</f>
+        <v/>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2">
+        <f>BDH("XLI 12/15/17 P71 Equity","PX_LAST",20171002,20171215)</f>
+        <v/>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2">
+        <f>BDH("XLI 1/19/18 P71 Equity","PX_LAST",20171101,20180119)</f>
+        <v/>
+      </c>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2">
+        <f>BDH("XLI 2/16/18 P73 Equity","PX_LAST",20171201,20180216)</f>
+        <v/>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2">
+        <f>BDH("XLI 3/16/18 P76 Equity","PX_LAST",20180102,20180316)</f>
+        <v/>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2">
+        <f>BDH("XLI 4/20/18 P79 Equity","PX_LAST",20180201,20180420)</f>
+        <v/>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2">
+        <f>BDH("XLI 5/18/18 P75 Equity","PX_LAST",20180301,20180518)</f>
+        <v/>
+      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2">
+        <f>BDH("XLI 6/15/18 P72 Equity","PX_LAST",20180402,20180615)</f>
+        <v/>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2">
+        <f>BDH("XLI 7/20/18 P71 Equity","PX_LAST",20180501,20180720)</f>
+        <v/>
+      </c>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2">
+        <f>BDH("XLI 8/17/18 P75 Equity","PX_LAST",20180601,20180817)</f>
+        <v/>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2">
+        <f>BDH("XLI 9/21/18 P71 Equity","PX_LAST",20180702,20180921)</f>
+        <v/>
+      </c>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2">
+        <f>BDH("XLI 10/19/18 P75 Equity","PX_LAST",20180801,20181019)</f>
+        <v/>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2">
+        <f>BDH("XLI 11/16/18 P77 Equity","PX_LAST",20180904,20181116)</f>
+        <v/>
+      </c>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2">
+        <f>BDH("XLI 12/21/18 P79 Equity","PX_LAST",20181001,20181221)</f>
+        <v/>
+      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2">
+        <f>BDH("XLI 1/18/19 P71 Equity","PX_LAST",20181101,20190118)</f>
+        <v/>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2">
+        <f>BDH("XLI 2/15/19 P73 Equity","PX_LAST",20181203,20190215)</f>
+        <v/>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2">
+        <f>BDH("XLI 3/15/19 P64 Equity","PX_LAST",20190102,20190315)</f>
+        <v/>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2">
+        <f>BDH("XLI 4/18/19 P71 Equity","PX_LAST",20190201,20190418)</f>
+        <v/>
+      </c>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2">
+        <f>BDH("XLI 5/17/19 P76 Equity","PX_LAST",20190301,20190517)</f>
+        <v/>
+      </c>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2">
+        <f>BDH("XLI 6/21/19 P76 Equity","PX_LAST",20190401,20190621)</f>
+        <v/>
+      </c>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2">
+        <f>BDH("XLI 7/19/19 P77 Equity","PX_LAST",20190501,20190719)</f>
+        <v/>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2">
+        <f>BDH("XLI 8/16/19 P72 Equity","PX_LAST",20190603,20190816)</f>
+        <v/>
+      </c>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2">
+        <f>BDH("XLI 9/20/19 P77 Equity","PX_LAST",20190701,20190920)</f>
+        <v/>
+      </c>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2">
+        <f>BDH("XLI 10/18/19 P76 Equity","PX_LAST",20190801,20191018)</f>
+        <v/>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2">
+        <f>BDH("XLI 11/15/19 P74 Equity","PX_LAST",20190903,20191115)</f>
+        <v/>
+      </c>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2">
+        <f>BDH("XLI 12/20/19 P75 Equity","PX_LAST",20191001,20191220)</f>
+        <v/>
+      </c>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2">
+        <f>BDH("XLI 1/17/20 P80 Equity","PX_LAST",20191101,20200117)</f>
+        <v/>
+      </c>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2">
+        <f>BDH("XLI 2/21/20 P80 Equity","PX_LAST",20191202,20200221)</f>
+        <v/>
+      </c>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2">
+        <f>BDH("XLI 3/20/20 P83 Equity","PX_LAST",20200102,20200320)</f>
+        <v/>
+      </c>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2">
+        <f>BDH("XLI 4/17/20 P81 Equity","PX_LAST",20200203,20200417)</f>
+        <v/>
+      </c>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2">
+        <f>BDH("XLI 5/15/20 P75 Equity","PX_LAST",20200302,20200515)</f>
+        <v/>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2">
+        <f>BDH("XLI 6/19/20 P56 Equity","PX_LAST",20200401,20200619)</f>
+        <v/>
+      </c>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2">
+        <f>BDH("XLI 7/17/20 P62 Equity","PX_LAST",20200501,20200717)</f>
+        <v/>
+      </c>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2">
+        <f>BDH("XLI 8/21/20 P67 Equity","PX_LAST",20200601,20200821)</f>
+        <v/>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2">
+        <f>BDH("XLI 9/18/20 P68 Equity","PX_LAST",20200701,20200918)</f>
+        <v/>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2">
+        <f>BDH("XLI 10/16/20 P72 Equity","PX_LAST",20200803,20201016)</f>
+        <v/>
+      </c>
+      <c r="EG2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1213,409 +3544,409 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>XLK 3/20/15 C41</t>
+          <t>SPY 3/20/15 P205</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>XLK 4/17/15 C40</t>
+          <t>SPY 4/17/15 P201</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr"/>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>XLK 5/15/15 C43</t>
+          <t>SPY 5/15/15 P211</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>XLK 6/19/15 C41</t>
+          <t>SPY 6/19/15 P205</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr"/>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>XLK 7/17/15 C43</t>
+          <t>SPY 7/17/15 P210</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr"/>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>XLK 8/21/15 C43</t>
+          <t>SPY 8/21/15 P211</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr"/>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>XLK 9/18/15 C41</t>
+          <t>SPY 9/18/15 P207</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr"/>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>XLK 10/16/15 C42</t>
+          <t>SPY 10/16/15 P209</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr"/>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>XLK 11/20/15 C38</t>
+          <t>SPY 11/20/15 P191</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr"/>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>XLK 12/18/15 C39</t>
+          <t>SPY 12/18/15 P192</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr"/>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>XLK 1/15/16 C44</t>
+          <t>SPY 1/15/16 P210</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr"/>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>XLK 2/19/16 C44</t>
+          <t>SPY 2/19/16 P210</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr"/>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>XLK 3/18/16 C42</t>
+          <t>SPY 3/18/16 P201</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr"/>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>XLK 4/15/16 C41</t>
+          <t>SPY 4/15/16 P193</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr"/>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>XLK 5/20/16 C42</t>
+          <t>SPY 5/20/16 P198</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr"/>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>XLK 6/17/16 C44</t>
+          <t>SPY 6/17/16 P206</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr"/>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>XLK 7/15/16 C42</t>
+          <t>SPY 7/15/16 P207</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr"/>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>XLK 8/19/16 C44</t>
+          <t>SPY 8/19/16 P210</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr"/>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>XLK 9/16/16 C43</t>
+          <t>SPY 9/16/16 P209</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr"/>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>XLK 10/21/16 C46</t>
+          <t>SPY 10/21/16 P216</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr"/>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>XLK 11/18/16 C47</t>
+          <t>SPY 11/18/16 P217</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr"/>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>XLK 12/16/16 C47</t>
+          <t>SPY 12/16/16 P215</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr"/>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>XLK 1/20/17 C47</t>
+          <t>SPY 1/20/17 P211</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr"/>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>XLK 2/17/17 C46</t>
+          <t>SPY 2/17/17 P219</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr"/>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>XLK 3/17/17 C48</t>
+          <t>SPY 3/17/17 P225</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr"/>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>XLK 4/21/17 C50</t>
+          <t>SPY 4/21/17 P227</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr"/>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>XLK 5/19/17 C53</t>
+          <t>SPY 5/19/17 P239</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr"/>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>XLK 6/16/17 C53</t>
+          <t>SPY 6/16/17 P235</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr"/>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>XLK 7/21/17 C54</t>
+          <t>SPY 7/21/17 P238</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr"/>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>XLK 8/18/17 C56</t>
+          <t>SPY 8/18/17 P243</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr"/>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>XLK 9/15/17 C54</t>
+          <t>SPY 9/15/17 P242</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr"/>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>XLK 10/20/17 C57</t>
+          <t>SPY 10/20/17 P247</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr"/>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>XLK 11/17/17 C58</t>
+          <t>SPY 11/17/17 P247</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr"/>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>XLK 12/15/17 C59</t>
+          <t>SPY 12/15/17 P252</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr"/>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>XLK 1/19/18 C62</t>
+          <t>SPY 1/19/18 P257</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr"/>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>XLK 2/16/18 C63</t>
+          <t>SPY 2/16/18 P264</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr"/>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>XLK 3/16/18 C64</t>
+          <t>SPY 3/16/18 P268</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr"/>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>XLK 4/20/18 C68</t>
+          <t>SPY 4/20/18 P281</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr"/>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>XLK 5/18/18 C67</t>
+          <t>SPY 5/18/18 P267</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr"/>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>XLK 6/15/18 C63</t>
+          <t>SPY 6/15/18 P257</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr"/>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>XLK 7/20/18 C66</t>
+          <t>SPY 7/20/18 P264</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr"/>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>XLK 8/17/18 C71</t>
+          <t>SPY 8/17/18 P273</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr"/>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>XLK 9/21/18 C70</t>
+          <t>SPY 9/21/18 P271</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr"/>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>XLK 10/19/18 C71</t>
+          <t>SPY 10/19/18 P280</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr"/>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>XLK 11/16/18 C75</t>
+          <t>SPY 11/16/18 P289</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr"/>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>XLK 12/21/18 C75</t>
+          <t>SPY 12/21/18 P291</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr"/>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>XLK 1/18/19 C70</t>
+          <t>SPY 1/18/19 P273</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr"/>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>XLK 2/15/19 C69</t>
+          <t>SPY 2/15/19 P279</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr"/>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>XLK 3/15/19 C62</t>
+          <t>SPY 3/15/19 P250</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr"/>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>XLK 4/18/19 C66</t>
+          <t>SPY 4/18/19 P270</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr"/>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>XLK 5/17/19 C71</t>
+          <t>SPY 5/17/19 P280</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr"/>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>XLK 6/21/19 C75</t>
+          <t>SPY 6/21/19 P285</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr"/>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>XLK 7/19/19 C78</t>
+          <t>SPY 7/19/19 P291</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr"/>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>XLK 8/16/19 C70</t>
+          <t>SPY 8/16/19 P274</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr"/>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>XLK 9/20/19 C79</t>
+          <t>SPY 9/20/19 P295</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr"/>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>XLK 10/18/19 C80</t>
+          <t>SPY 10/18/19 P294</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr"/>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>XLK 11/15/19 C78</t>
+          <t>SPY 11/15/19 P290</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr"/>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>XLK 12/20/19 C79</t>
+          <t>SPY 12/20/19 P293</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr"/>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>XLK 1/17/20 C84</t>
+          <t>SPY 1/17/20 P306</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr"/>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>XLK 2/21/20 C86</t>
+          <t>SPY 2/21/20 P311</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr"/>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>XLK 3/20/20 C93</t>
+          <t>SPY 3/20/20 P324</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr"/>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>XLK 4/17/20 C96</t>
+          <t>SPY 4/17/20 P324</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr"/>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>XLK 5/15/20 C93</t>
+          <t>SPY 5/15/20 P309</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr"/>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>XLK 6/19/20 C76</t>
+          <t>SPY 6/19/20 P246</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr"/>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>XLK 7/17/20 C88</t>
+          <t>SPY 7/17/20 P282</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr"/>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>XLK 8/21/20 C97</t>
+          <t>SPY 8/21/20 P305</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr"/>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>XLK 9/18/20 C104</t>
+          <t>SPY 9/18/20 P310</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr"/>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>XLK 10/16/20 C113</t>
+          <t>SPY 10/16/20 P328</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr"/>
@@ -1625,342 +3956,342 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>BDH("XLK 3/20/15 C41 Equity","PX_LAST",20150102,20150320)</f>
+        <f>BDH("SPY 3/20/15 P205 Equity","PX_LAST",20150102,20150320)</f>
         <v/>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2">
-        <f>BDH("XLK 4/17/15 C40 Equity","PX_LAST",20150202,20150417)</f>
+        <f>BDH("SPY 4/17/15 P201 Equity","PX_LAST",20150202,20150417)</f>
         <v/>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2">
-        <f>BDH("XLK 5/15/15 C43 Equity","PX_LAST",20150302,20150515)</f>
+        <f>BDH("SPY 5/15/15 P211 Equity","PX_LAST",20150302,20150515)</f>
         <v/>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2">
-        <f>BDH("XLK 6/19/15 C41 Equity","PX_LAST",20150401,20150619)</f>
+        <f>BDH("SPY 6/19/15 P205 Equity","PX_LAST",20150401,20150619)</f>
         <v/>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2">
-        <f>BDH("XLK 7/17/15 C43 Equity","PX_LAST",20150501,20150717)</f>
+        <f>BDH("SPY 7/17/15 P210 Equity","PX_LAST",20150501,20150717)</f>
         <v/>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2">
-        <f>BDH("XLK 8/21/15 C43 Equity","PX_LAST",20150601,20150821)</f>
+        <f>BDH("SPY 8/21/15 P211 Equity","PX_LAST",20150601,20150821)</f>
         <v/>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2">
-        <f>BDH("XLK 9/18/15 C41 Equity","PX_LAST",20150701,20150918)</f>
+        <f>BDH("SPY 9/18/15 P207 Equity","PX_LAST",20150701,20150918)</f>
         <v/>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2">
-        <f>BDH("XLK 10/16/15 C42 Equity","PX_LAST",20150803,20151016)</f>
+        <f>BDH("SPY 10/16/15 P209 Equity","PX_LAST",20150803,20151016)</f>
         <v/>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2">
-        <f>BDH("XLK 11/20/15 C38 Equity","PX_LAST",20150901,20151120)</f>
+        <f>BDH("SPY 11/20/15 P191 Equity","PX_LAST",20150901,20151120)</f>
         <v/>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2">
-        <f>BDH("XLK 12/18/15 C39 Equity","PX_LAST",20151001,20151218)</f>
+        <f>BDH("SPY 12/18/15 P192 Equity","PX_LAST",20151001,20151218)</f>
         <v/>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2">
-        <f>BDH("XLK 1/15/16 C44 Equity","PX_LAST",20151102,20160115)</f>
+        <f>BDH("SPY 1/15/16 P210 Equity","PX_LAST",20151102,20160115)</f>
         <v/>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2">
-        <f>BDH("XLK 2/19/16 C44 Equity","PX_LAST",20151201,20160219)</f>
+        <f>BDH("SPY 2/19/16 P210 Equity","PX_LAST",20151201,20160219)</f>
         <v/>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2">
-        <f>BDH("XLK 3/18/16 C42 Equity","PX_LAST",20160104,20160318)</f>
+        <f>BDH("SPY 3/18/16 P201 Equity","PX_LAST",20160104,20160318)</f>
         <v/>
       </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2">
-        <f>BDH("XLK 4/15/16 C41 Equity","PX_LAST",20160201,20160415)</f>
+        <f>BDH("SPY 4/15/16 P193 Equity","PX_LAST",20160201,20160415)</f>
         <v/>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2">
-        <f>BDH("XLK 5/20/16 C42 Equity","PX_LAST",20160301,20160520)</f>
+        <f>BDH("SPY 5/20/16 P198 Equity","PX_LAST",20160301,20160520)</f>
         <v/>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2">
-        <f>BDH("XLK 6/17/16 C44 Equity","PX_LAST",20160401,20160617)</f>
+        <f>BDH("SPY 6/17/16 P206 Equity","PX_LAST",20160401,20160617)</f>
         <v/>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2">
-        <f>BDH("XLK 7/15/16 C42 Equity","PX_LAST",20160502,20160715)</f>
+        <f>BDH("SPY 7/15/16 P207 Equity","PX_LAST",20160502,20160715)</f>
         <v/>
       </c>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2">
-        <f>BDH("XLK 8/19/16 C44 Equity","PX_LAST",20160601,20160819)</f>
+        <f>BDH("SPY 8/19/16 P210 Equity","PX_LAST",20160601,20160819)</f>
         <v/>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2">
-        <f>BDH("XLK 9/16/16 C43 Equity","PX_LAST",20160701,20160916)</f>
+        <f>BDH("SPY 9/16/16 P209 Equity","PX_LAST",20160701,20160916)</f>
         <v/>
       </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2">
-        <f>BDH("XLK 10/21/16 C46 Equity","PX_LAST",20160801,20161021)</f>
+        <f>BDH("SPY 10/21/16 P216 Equity","PX_LAST",20160801,20161021)</f>
         <v/>
       </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2">
-        <f>BDH("XLK 11/18/16 C47 Equity","PX_LAST",20160901,20161118)</f>
+        <f>BDH("SPY 11/18/16 P217 Equity","PX_LAST",20160901,20161118)</f>
         <v/>
       </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2">
-        <f>BDH("XLK 12/16/16 C47 Equity","PX_LAST",20161003,20161216)</f>
+        <f>BDH("SPY 12/16/16 P215 Equity","PX_LAST",20161003,20161216)</f>
         <v/>
       </c>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2">
-        <f>BDH("XLK 1/20/17 C47 Equity","PX_LAST",20161101,20170120)</f>
+        <f>BDH("SPY 1/20/17 P211 Equity","PX_LAST",20161101,20170120)</f>
         <v/>
       </c>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2">
-        <f>BDH("XLK 2/17/17 C46 Equity","PX_LAST",20161201,20170217)</f>
+        <f>BDH("SPY 2/17/17 P219 Equity","PX_LAST",20161201,20170217)</f>
         <v/>
       </c>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2">
-        <f>BDH("XLK 3/17/17 C48 Equity","PX_LAST",20170103,20170317)</f>
+        <f>BDH("SPY 3/17/17 P225 Equity","PX_LAST",20170103,20170317)</f>
         <v/>
       </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2">
-        <f>BDH("XLK 4/21/17 C50 Equity","PX_LAST",20170201,20170421)</f>
+        <f>BDH("SPY 4/21/17 P227 Equity","PX_LAST",20170201,20170421)</f>
         <v/>
       </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2">
-        <f>BDH("XLK 5/19/17 C53 Equity","PX_LAST",20170301,20170519)</f>
+        <f>BDH("SPY 5/19/17 P239 Equity","PX_LAST",20170301,20170519)</f>
         <v/>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2">
-        <f>BDH("XLK 6/16/17 C53 Equity","PX_LAST",20170403,20170616)</f>
+        <f>BDH("SPY 6/16/17 P235 Equity","PX_LAST",20170403,20170616)</f>
         <v/>
       </c>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2">
-        <f>BDH("XLK 7/21/17 C54 Equity","PX_LAST",20170501,20170721)</f>
+        <f>BDH("SPY 7/21/17 P238 Equity","PX_LAST",20170501,20170721)</f>
         <v/>
       </c>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2">
-        <f>BDH("XLK 8/18/17 C56 Equity","PX_LAST",20170601,20170818)</f>
+        <f>BDH("SPY 8/18/17 P243 Equity","PX_LAST",20170601,20170818)</f>
         <v/>
       </c>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2">
-        <f>BDH("XLK 9/15/17 C54 Equity","PX_LAST",20170703,20170915)</f>
+        <f>BDH("SPY 9/15/17 P242 Equity","PX_LAST",20170703,20170915)</f>
         <v/>
       </c>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2">
-        <f>BDH("XLK 10/20/17 C57 Equity","PX_LAST",20170801,20171020)</f>
+        <f>BDH("SPY 10/20/17 P247 Equity","PX_LAST",20170801,20171020)</f>
         <v/>
       </c>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2">
-        <f>BDH("XLK 11/17/17 C58 Equity","PX_LAST",20170901,20171117)</f>
+        <f>BDH("SPY 11/17/17 P247 Equity","PX_LAST",20170901,20171117)</f>
         <v/>
       </c>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2">
-        <f>BDH("XLK 12/15/17 C59 Equity","PX_LAST",20171002,20171215)</f>
+        <f>BDH("SPY 12/15/17 P252 Equity","PX_LAST",20171002,20171215)</f>
         <v/>
       </c>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2">
-        <f>BDH("XLK 1/19/18 C62 Equity","PX_LAST",20171101,20180119)</f>
+        <f>BDH("SPY 1/19/18 P257 Equity","PX_LAST",20171101,20180119)</f>
         <v/>
       </c>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2">
-        <f>BDH("XLK 2/16/18 C63 Equity","PX_LAST",20171201,20180216)</f>
+        <f>BDH("SPY 2/16/18 P264 Equity","PX_LAST",20171201,20180216)</f>
         <v/>
       </c>
       <c r="BU2" t="inlineStr"/>
       <c r="BV2">
-        <f>BDH("XLK 3/16/18 C64 Equity","PX_LAST",20180102,20180316)</f>
+        <f>BDH("SPY 3/16/18 P268 Equity","PX_LAST",20180102,20180316)</f>
         <v/>
       </c>
       <c r="BW2" t="inlineStr"/>
       <c r="BX2">
-        <f>BDH("XLK 4/20/18 C68 Equity","PX_LAST",20180201,20180420)</f>
+        <f>BDH("SPY 4/20/18 P281 Equity","PX_LAST",20180201,20180420)</f>
         <v/>
       </c>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2">
-        <f>BDH("XLK 5/18/18 C67 Equity","PX_LAST",20180301,20180518)</f>
+        <f>BDH("SPY 5/18/18 P267 Equity","PX_LAST",20180301,20180518)</f>
         <v/>
       </c>
       <c r="CA2" t="inlineStr"/>
       <c r="CB2">
-        <f>BDH("XLK 6/15/18 C63 Equity","PX_LAST",20180402,20180615)</f>
+        <f>BDH("SPY 6/15/18 P257 Equity","PX_LAST",20180402,20180615)</f>
         <v/>
       </c>
       <c r="CC2" t="inlineStr"/>
       <c r="CD2">
-        <f>BDH("XLK 7/20/18 C66 Equity","PX_LAST",20180501,20180720)</f>
+        <f>BDH("SPY 7/20/18 P264 Equity","PX_LAST",20180501,20180720)</f>
         <v/>
       </c>
       <c r="CE2" t="inlineStr"/>
       <c r="CF2">
-        <f>BDH("XLK 8/17/18 C71 Equity","PX_LAST",20180601,20180817)</f>
+        <f>BDH("SPY 8/17/18 P273 Equity","PX_LAST",20180601,20180817)</f>
         <v/>
       </c>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2">
-        <f>BDH("XLK 9/21/18 C70 Equity","PX_LAST",20180702,20180921)</f>
+        <f>BDH("SPY 9/21/18 P271 Equity","PX_LAST",20180702,20180921)</f>
         <v/>
       </c>
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2">
-        <f>BDH("XLK 10/19/18 C71 Equity","PX_LAST",20180801,20181019)</f>
+        <f>BDH("SPY 10/19/18 P280 Equity","PX_LAST",20180801,20181019)</f>
         <v/>
       </c>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2">
-        <f>BDH("XLK 11/16/18 C75 Equity","PX_LAST",20180904,20181116)</f>
+        <f>BDH("SPY 11/16/18 P289 Equity","PX_LAST",20180904,20181116)</f>
         <v/>
       </c>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2">
-        <f>BDH("XLK 12/21/18 C75 Equity","PX_LAST",20181001,20181221)</f>
+        <f>BDH("SPY 12/21/18 P291 Equity","PX_LAST",20181001,20181221)</f>
         <v/>
       </c>
       <c r="CO2" t="inlineStr"/>
       <c r="CP2">
-        <f>BDH("XLK 1/18/19 C70 Equity","PX_LAST",20181101,20190118)</f>
+        <f>BDH("SPY 1/18/19 P273 Equity","PX_LAST",20181101,20190118)</f>
         <v/>
       </c>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2">
-        <f>BDH("XLK 2/15/19 C69 Equity","PX_LAST",20181203,20190215)</f>
+        <f>BDH("SPY 2/15/19 P279 Equity","PX_LAST",20181203,20190215)</f>
         <v/>
       </c>
       <c r="CS2" t="inlineStr"/>
       <c r="CT2">
-        <f>BDH("XLK 3/15/19 C62 Equity","PX_LAST",20190102,20190315)</f>
+        <f>BDH("SPY 3/15/19 P250 Equity","PX_LAST",20190102,20190315)</f>
         <v/>
       </c>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2">
-        <f>BDH("XLK 4/18/19 C66 Equity","PX_LAST",20190201,20190418)</f>
+        <f>BDH("SPY 4/18/19 P270 Equity","PX_LAST",20190201,20190418)</f>
         <v/>
       </c>
       <c r="CW2" t="inlineStr"/>
       <c r="CX2">
-        <f>BDH("XLK 5/17/19 C71 Equity","PX_LAST",20190301,20190517)</f>
+        <f>BDH("SPY 5/17/19 P280 Equity","PX_LAST",20190301,20190517)</f>
         <v/>
       </c>
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2">
-        <f>BDH("XLK 6/21/19 C75 Equity","PX_LAST",20190401,20190621)</f>
+        <f>BDH("SPY 6/21/19 P285 Equity","PX_LAST",20190401,20190621)</f>
         <v/>
       </c>
       <c r="DA2" t="inlineStr"/>
       <c r="DB2">
-        <f>BDH("XLK 7/19/19 C78 Equity","PX_LAST",20190501,20190719)</f>
+        <f>BDH("SPY 7/19/19 P291 Equity","PX_LAST",20190501,20190719)</f>
         <v/>
       </c>
       <c r="DC2" t="inlineStr"/>
       <c r="DD2">
-        <f>BDH("XLK 8/16/19 C70 Equity","PX_LAST",20190603,20190816)</f>
+        <f>BDH("SPY 8/16/19 P274 Equity","PX_LAST",20190603,20190816)</f>
         <v/>
       </c>
       <c r="DE2" t="inlineStr"/>
       <c r="DF2">
-        <f>BDH("XLK 9/20/19 C79 Equity","PX_LAST",20190701,20190920)</f>
+        <f>BDH("SPY 9/20/19 P295 Equity","PX_LAST",20190701,20190920)</f>
         <v/>
       </c>
       <c r="DG2" t="inlineStr"/>
       <c r="DH2">
-        <f>BDH("XLK 10/18/19 C80 Equity","PX_LAST",20190801,20191018)</f>
+        <f>BDH("SPY 10/18/19 P294 Equity","PX_LAST",20190801,20191018)</f>
         <v/>
       </c>
       <c r="DI2" t="inlineStr"/>
       <c r="DJ2">
-        <f>BDH("XLK 11/15/19 C78 Equity","PX_LAST",20190903,20191115)</f>
+        <f>BDH("SPY 11/15/19 P290 Equity","PX_LAST",20190903,20191115)</f>
         <v/>
       </c>
       <c r="DK2" t="inlineStr"/>
       <c r="DL2">
-        <f>BDH("XLK 12/20/19 C79 Equity","PX_LAST",20191001,20191220)</f>
+        <f>BDH("SPY 12/20/19 P293 Equity","PX_LAST",20191001,20191220)</f>
         <v/>
       </c>
       <c r="DM2" t="inlineStr"/>
       <c r="DN2">
-        <f>BDH("XLK 1/17/20 C84 Equity","PX_LAST",20191101,20200117)</f>
+        <f>BDH("SPY 1/17/20 P306 Equity","PX_LAST",20191101,20200117)</f>
         <v/>
       </c>
       <c r="DO2" t="inlineStr"/>
       <c r="DP2">
-        <f>BDH("XLK 2/21/20 C86 Equity","PX_LAST",20191202,20200221)</f>
+        <f>BDH("SPY 2/21/20 P311 Equity","PX_LAST",20191202,20200221)</f>
         <v/>
       </c>
       <c r="DQ2" t="inlineStr"/>
       <c r="DR2">
-        <f>BDH("XLK 3/20/20 C93 Equity","PX_LAST",20200102,20200320)</f>
+        <f>BDH("SPY 3/20/20 P324 Equity","PX_LAST",20200102,20200320)</f>
         <v/>
       </c>
       <c r="DS2" t="inlineStr"/>
       <c r="DT2">
-        <f>BDH("XLK 4/17/20 C96 Equity","PX_LAST",20200203,20200417)</f>
+        <f>BDH("SPY 4/17/20 P324 Equity","PX_LAST",20200203,20200417)</f>
         <v/>
       </c>
       <c r="DU2" t="inlineStr"/>
       <c r="DV2">
-        <f>BDH("XLK 5/15/20 C93 Equity","PX_LAST",20200302,20200515)</f>
+        <f>BDH("SPY 5/15/20 P309 Equity","PX_LAST",20200302,20200515)</f>
         <v/>
       </c>
       <c r="DW2" t="inlineStr"/>
       <c r="DX2">
-        <f>BDH("XLK 6/19/20 C76 Equity","PX_LAST",20200401,20200619)</f>
+        <f>BDH("SPY 6/19/20 P246 Equity","PX_LAST",20200401,20200619)</f>
         <v/>
       </c>
       <c r="DY2" t="inlineStr"/>
       <c r="DZ2">
-        <f>BDH("XLK 7/17/20 C88 Equity","PX_LAST",20200501,20200717)</f>
+        <f>BDH("SPY 7/17/20 P282 Equity","PX_LAST",20200501,20200717)</f>
         <v/>
       </c>
       <c r="EA2" t="inlineStr"/>
       <c r="EB2">
-        <f>BDH("XLK 8/21/20 C97 Equity","PX_LAST",20200601,20200821)</f>
+        <f>BDH("SPY 8/21/20 P305 Equity","PX_LAST",20200601,20200821)</f>
         <v/>
       </c>
       <c r="EC2" t="inlineStr"/>
       <c r="ED2">
-        <f>BDH("XLK 9/18/20 C104 Equity","PX_LAST",20200701,20200918)</f>
+        <f>BDH("SPY 9/18/20 P310 Equity","PX_LAST",20200701,20200918)</f>
         <v/>
       </c>
       <c r="EE2" t="inlineStr"/>
       <c r="EF2">
-        <f>BDH("XLK 10/16/20 C113 Equity","PX_LAST",20200803,20201016)</f>
+        <f>BDH("SPY 10/16/20 P328 Equity","PX_LAST",20200803,20201016)</f>
         <v/>
       </c>
       <c r="EG2" t="inlineStr"/>
@@ -1987,409 +4318,409 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 3/20/15 C46</t>
+          <t>XLK 3/20/15 C41</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 4/17/15 C41</t>
+          <t>XLK 4/17/15 C40</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr"/>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 5/15/15 C43</t>
+          <t>XLK 5/15/15 C43</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 6/19/15 C40</t>
+          <t>XLK 6/19/15 C41</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr"/>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 7/17/15 C48</t>
+          <t>XLK 7/17/15 C43</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr"/>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 8/21/15 C47</t>
+          <t>XLK 8/21/15 C43</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr"/>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 9/18/15 C44</t>
+          <t>XLK 9/18/15 C41</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr"/>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 10/16/15 C46</t>
+          <t>XLK 10/16/15 C42</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr"/>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 11/20/15 C41</t>
+          <t>XLK 11/20/15 C38</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr"/>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 12/18/15 C44</t>
+          <t>XLK 12/18/15 C39</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr"/>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 1/15/16 C53</t>
+          <t>XLK 1/15/16 C44</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr"/>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 2/19/16 C55</t>
+          <t>XLK 2/19/16 C44</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr"/>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 3/18/16 C54</t>
+          <t>XLK 3/18/16 C42</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr"/>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 4/15/16 C54</t>
+          <t>XLK 4/15/16 C41</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr"/>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 5/20/16 C52</t>
+          <t>XLK 5/20/16 C42</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr"/>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 6/17/16 C55</t>
+          <t>XLK 6/17/16 C44</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr"/>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 7/15/16 C50</t>
+          <t>XLK 7/15/16 C42</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr"/>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 8/19/16 C52</t>
+          <t>XLK 8/19/16 C44</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr"/>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 9/16/16 C51</t>
+          <t>XLK 9/16/16 C43</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr"/>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 10/21/16 C56</t>
+          <t>XLK 10/21/16 C46</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr"/>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 11/18/16 C57</t>
+          <t>XLK 11/18/16 C47</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr"/>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 12/16/16 C57</t>
+          <t>XLK 12/16/16 C47</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr"/>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 1/20/17 C59</t>
+          <t>XLK 1/20/17 C47</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr"/>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 2/17/17 C59</t>
+          <t>XLK 2/17/17 C46</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr"/>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 3/17/17 C62</t>
+          <t>XLK 3/17/17 C48</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr"/>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 4/21/17 C63</t>
+          <t>XLK 4/21/17 C50</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr"/>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 5/19/17 C64</t>
+          <t>XLK 5/19/17 C53</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr"/>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 6/16/17 C65</t>
+          <t>XLK 6/16/17 C53</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr"/>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 7/21/17 C69</t>
+          <t>XLK 7/21/17 C54</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr"/>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 8/18/17 C70</t>
+          <t>XLK 8/18/17 C56</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr"/>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 9/15/17 C68</t>
+          <t>XLK 9/15/17 C54</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr"/>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 10/20/17 C72</t>
+          <t>XLK 10/20/17 C57</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr"/>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 11/17/17 C73</t>
+          <t>XLK 11/17/17 C58</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr"/>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 12/15/17 C74</t>
+          <t>XLK 12/15/17 C59</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr"/>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 1/19/18 C83</t>
+          <t>XLK 1/19/18 C62</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr"/>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 2/16/18 C84</t>
+          <t>XLK 2/16/18 C63</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr"/>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 3/16/18 C85</t>
+          <t>XLK 3/16/18 C64</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr"/>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 4/20/18 C94</t>
+          <t>XLK 4/20/18 C68</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr"/>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 5/18/18 C92</t>
+          <t>XLK 5/18/18 C67</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr"/>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 6/15/18 C88</t>
+          <t>XLK 6/15/18 C63</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr"/>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 7/20/18 C95</t>
+          <t>XLK 7/20/18 C66</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr"/>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 8/17/18 C100</t>
+          <t>XLK 8/17/18 C71</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr"/>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 9/21/18 C100</t>
+          <t>XLK 9/21/18 C70</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr"/>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 10/19/18 C106</t>
+          <t>XLK 10/19/18 C71</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr"/>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 11/16/18 C111</t>
+          <t>XLK 11/16/18 C75</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr"/>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 12/21/18 C115</t>
+          <t>XLK 12/21/18 C75</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr"/>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 1/18/19 C105</t>
+          <t>XLK 1/18/19 C70</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr"/>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 2/15/19 C112</t>
+          <t>XLK 2/15/19 C69</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr"/>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 3/15/19 C101</t>
+          <t>XLK 3/15/19 C62</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr"/>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 4/18/19 C102</t>
+          <t>XLK 4/18/19 C66</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr"/>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 5/17/19 C112</t>
+          <t>XLK 5/17/19 C71</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr"/>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 6/21/19 C119</t>
+          <t>XLK 6/21/19 C75</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr"/>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 7/19/19 C127</t>
+          <t>XLK 7/19/19 C78</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr"/>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 8/16/19 C119</t>
+          <t>XLK 8/16/19 C70</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr"/>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 9/20/19 C135</t>
+          <t>XLK 9/20/19 C79</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr"/>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 10/18/19 C138</t>
+          <t>XLK 10/18/19 C80</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr"/>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 11/15/19 C136</t>
+          <t>XLK 11/15/19 C78</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr"/>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 12/20/19 C137</t>
+          <t>XLK 12/20/19 C79</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr"/>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 1/17/20 C143</t>
+          <t>XLK 1/17/20 C84</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr"/>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 2/21/20 C149</t>
+          <t>XLK 2/21/20 C86</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr"/>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 3/20/20 C160</t>
+          <t>XLK 3/20/20 C93</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr"/>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 4/17/20 C174</t>
+          <t>XLK 4/17/20 C96</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr"/>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 5/15/20 C172</t>
+          <t>XLK 5/15/20 C93</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr"/>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 6/19/20 C152</t>
+          <t>XLK 6/19/20 C76</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr"/>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 7/17/20 C174</t>
+          <t>XLK 7/17/20 C88</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr"/>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 8/21/20 C182</t>
+          <t>XLK 8/21/20 C97</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr"/>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 9/18/20 C204</t>
+          <t>XLK 9/18/20 C104</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr"/>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>MSFT 10/16/20 C216</t>
+          <t>XLK 10/16/20 C113</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr"/>
@@ -2399,342 +4730,4986 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>BDH("MSFT 3/20/15 C46 Equity","PX_LAST",20150102,20150320)</f>
+        <f>BDH("XLK 3/20/15 C41 Equity","PX_LAST",20150102,20150320)</f>
         <v/>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2">
-        <f>BDH("MSFT 4/17/15 C41 Equity","PX_LAST",20150202,20150417)</f>
+        <f>BDH("XLK 4/17/15 C40 Equity","PX_LAST",20150202,20150417)</f>
         <v/>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2">
-        <f>BDH("MSFT 5/15/15 C43 Equity","PX_LAST",20150302,20150515)</f>
+        <f>BDH("XLK 5/15/15 C43 Equity","PX_LAST",20150302,20150515)</f>
         <v/>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2">
-        <f>BDH("MSFT 6/19/15 C40 Equity","PX_LAST",20150401,20150619)</f>
+        <f>BDH("XLK 6/19/15 C41 Equity","PX_LAST",20150401,20150619)</f>
         <v/>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2">
-        <f>BDH("MSFT 7/17/15 C48 Equity","PX_LAST",20150501,20150717)</f>
+        <f>BDH("XLK 7/17/15 C43 Equity","PX_LAST",20150501,20150717)</f>
         <v/>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2">
-        <f>BDH("MSFT 8/21/15 C47 Equity","PX_LAST",20150601,20150821)</f>
+        <f>BDH("XLK 8/21/15 C43 Equity","PX_LAST",20150601,20150821)</f>
         <v/>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2">
-        <f>BDH("MSFT 9/18/15 C44 Equity","PX_LAST",20150701,20150918)</f>
+        <f>BDH("XLK 9/18/15 C41 Equity","PX_LAST",20150701,20150918)</f>
         <v/>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2">
-        <f>BDH("MSFT 10/16/15 C46 Equity","PX_LAST",20150803,20151016)</f>
+        <f>BDH("XLK 10/16/15 C42 Equity","PX_LAST",20150803,20151016)</f>
         <v/>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2">
-        <f>BDH("MSFT 11/20/15 C41 Equity","PX_LAST",20150901,20151120)</f>
+        <f>BDH("XLK 11/20/15 C38 Equity","PX_LAST",20150901,20151120)</f>
         <v/>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2">
-        <f>BDH("MSFT 12/18/15 C44 Equity","PX_LAST",20151001,20151218)</f>
+        <f>BDH("XLK 12/18/15 C39 Equity","PX_LAST",20151001,20151218)</f>
         <v/>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2">
-        <f>BDH("MSFT 1/15/16 C53 Equity","PX_LAST",20151102,20160115)</f>
+        <f>BDH("XLK 1/15/16 C44 Equity","PX_LAST",20151102,20160115)</f>
         <v/>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2">
-        <f>BDH("MSFT 2/19/16 C55 Equity","PX_LAST",20151201,20160219)</f>
+        <f>BDH("XLK 2/19/16 C44 Equity","PX_LAST",20151201,20160219)</f>
         <v/>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2">
-        <f>BDH("MSFT 3/18/16 C54 Equity","PX_LAST",20160104,20160318)</f>
+        <f>BDH("XLK 3/18/16 C42 Equity","PX_LAST",20160104,20160318)</f>
         <v/>
       </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2">
-        <f>BDH("MSFT 4/15/16 C54 Equity","PX_LAST",20160201,20160415)</f>
+        <f>BDH("XLK 4/15/16 C41 Equity","PX_LAST",20160201,20160415)</f>
         <v/>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2">
-        <f>BDH("MSFT 5/20/16 C52 Equity","PX_LAST",20160301,20160520)</f>
+        <f>BDH("XLK 5/20/16 C42 Equity","PX_LAST",20160301,20160520)</f>
         <v/>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2">
-        <f>BDH("MSFT 6/17/16 C55 Equity","PX_LAST",20160401,20160617)</f>
+        <f>BDH("XLK 6/17/16 C44 Equity","PX_LAST",20160401,20160617)</f>
         <v/>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2">
-        <f>BDH("MSFT 7/15/16 C50 Equity","PX_LAST",20160502,20160715)</f>
+        <f>BDH("XLK 7/15/16 C42 Equity","PX_LAST",20160502,20160715)</f>
         <v/>
       </c>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2">
-        <f>BDH("MSFT 8/19/16 C52 Equity","PX_LAST",20160601,20160819)</f>
+        <f>BDH("XLK 8/19/16 C44 Equity","PX_LAST",20160601,20160819)</f>
         <v/>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2">
-        <f>BDH("MSFT 9/16/16 C51 Equity","PX_LAST",20160701,20160916)</f>
+        <f>BDH("XLK 9/16/16 C43 Equity","PX_LAST",20160701,20160916)</f>
         <v/>
       </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2">
-        <f>BDH("MSFT 10/21/16 C56 Equity","PX_LAST",20160801,20161021)</f>
+        <f>BDH("XLK 10/21/16 C46 Equity","PX_LAST",20160801,20161021)</f>
         <v/>
       </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2">
-        <f>BDH("MSFT 11/18/16 C57 Equity","PX_LAST",20160901,20161118)</f>
+        <f>BDH("XLK 11/18/16 C47 Equity","PX_LAST",20160901,20161118)</f>
         <v/>
       </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2">
-        <f>BDH("MSFT 12/16/16 C57 Equity","PX_LAST",20161003,20161216)</f>
+        <f>BDH("XLK 12/16/16 C47 Equity","PX_LAST",20161003,20161216)</f>
         <v/>
       </c>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2">
-        <f>BDH("MSFT 1/20/17 C59 Equity","PX_LAST",20161101,20170120)</f>
+        <f>BDH("XLK 1/20/17 C47 Equity","PX_LAST",20161101,20170120)</f>
         <v/>
       </c>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2">
-        <f>BDH("MSFT 2/17/17 C59 Equity","PX_LAST",20161201,20170217)</f>
+        <f>BDH("XLK 2/17/17 C46 Equity","PX_LAST",20161201,20170217)</f>
         <v/>
       </c>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2">
-        <f>BDH("MSFT 3/17/17 C62 Equity","PX_LAST",20170103,20170317)</f>
+        <f>BDH("XLK 3/17/17 C48 Equity","PX_LAST",20170103,20170317)</f>
         <v/>
       </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2">
-        <f>BDH("MSFT 4/21/17 C63 Equity","PX_LAST",20170201,20170421)</f>
+        <f>BDH("XLK 4/21/17 C50 Equity","PX_LAST",20170201,20170421)</f>
         <v/>
       </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2">
-        <f>BDH("MSFT 5/19/17 C64 Equity","PX_LAST",20170301,20170519)</f>
+        <f>BDH("XLK 5/19/17 C53 Equity","PX_LAST",20170301,20170519)</f>
         <v/>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2">
-        <f>BDH("MSFT 6/16/17 C65 Equity","PX_LAST",20170403,20170616)</f>
+        <f>BDH("XLK 6/16/17 C53 Equity","PX_LAST",20170403,20170616)</f>
         <v/>
       </c>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2">
-        <f>BDH("MSFT 7/21/17 C69 Equity","PX_LAST",20170501,20170721)</f>
+        <f>BDH("XLK 7/21/17 C54 Equity","PX_LAST",20170501,20170721)</f>
         <v/>
       </c>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2">
-        <f>BDH("MSFT 8/18/17 C70 Equity","PX_LAST",20170601,20170818)</f>
+        <f>BDH("XLK 8/18/17 C56 Equity","PX_LAST",20170601,20170818)</f>
         <v/>
       </c>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2">
-        <f>BDH("MSFT 9/15/17 C68 Equity","PX_LAST",20170703,20170915)</f>
+        <f>BDH("XLK 9/15/17 C54 Equity","PX_LAST",20170703,20170915)</f>
         <v/>
       </c>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2">
-        <f>BDH("MSFT 10/20/17 C72 Equity","PX_LAST",20170801,20171020)</f>
+        <f>BDH("XLK 10/20/17 C57 Equity","PX_LAST",20170801,20171020)</f>
         <v/>
       </c>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2">
-        <f>BDH("MSFT 11/17/17 C73 Equity","PX_LAST",20170901,20171117)</f>
+        <f>BDH("XLK 11/17/17 C58 Equity","PX_LAST",20170901,20171117)</f>
         <v/>
       </c>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2">
-        <f>BDH("MSFT 12/15/17 C74 Equity","PX_LAST",20171002,20171215)</f>
+        <f>BDH("XLK 12/15/17 C59 Equity","PX_LAST",20171002,20171215)</f>
         <v/>
       </c>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2">
-        <f>BDH("MSFT 1/19/18 C83 Equity","PX_LAST",20171101,20180119)</f>
+        <f>BDH("XLK 1/19/18 C62 Equity","PX_LAST",20171101,20180119)</f>
         <v/>
       </c>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2">
-        <f>BDH("MSFT 2/16/18 C84 Equity","PX_LAST",20171201,20180216)</f>
+        <f>BDH("XLK 2/16/18 C63 Equity","PX_LAST",20171201,20180216)</f>
         <v/>
       </c>
       <c r="BU2" t="inlineStr"/>
       <c r="BV2">
-        <f>BDH("MSFT 3/16/18 C85 Equity","PX_LAST",20180102,20180316)</f>
+        <f>BDH("XLK 3/16/18 C64 Equity","PX_LAST",20180102,20180316)</f>
         <v/>
       </c>
       <c r="BW2" t="inlineStr"/>
       <c r="BX2">
-        <f>BDH("MSFT 4/20/18 C94 Equity","PX_LAST",20180201,20180420)</f>
+        <f>BDH("XLK 4/20/18 C68 Equity","PX_LAST",20180201,20180420)</f>
         <v/>
       </c>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2">
-        <f>BDH("MSFT 5/18/18 C92 Equity","PX_LAST",20180301,20180518)</f>
+        <f>BDH("XLK 5/18/18 C67 Equity","PX_LAST",20180301,20180518)</f>
         <v/>
       </c>
       <c r="CA2" t="inlineStr"/>
       <c r="CB2">
-        <f>BDH("MSFT 6/15/18 C88 Equity","PX_LAST",20180402,20180615)</f>
+        <f>BDH("XLK 6/15/18 C63 Equity","PX_LAST",20180402,20180615)</f>
         <v/>
       </c>
       <c r="CC2" t="inlineStr"/>
       <c r="CD2">
-        <f>BDH("MSFT 7/20/18 C95 Equity","PX_LAST",20180501,20180720)</f>
+        <f>BDH("XLK 7/20/18 C66 Equity","PX_LAST",20180501,20180720)</f>
         <v/>
       </c>
       <c r="CE2" t="inlineStr"/>
       <c r="CF2">
-        <f>BDH("MSFT 8/17/18 C100 Equity","PX_LAST",20180601,20180817)</f>
+        <f>BDH("XLK 8/17/18 C71 Equity","PX_LAST",20180601,20180817)</f>
         <v/>
       </c>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2">
-        <f>BDH("MSFT 9/21/18 C100 Equity","PX_LAST",20180702,20180921)</f>
+        <f>BDH("XLK 9/21/18 C70 Equity","PX_LAST",20180702,20180921)</f>
         <v/>
       </c>
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2">
-        <f>BDH("MSFT 10/19/18 C106 Equity","PX_LAST",20180801,20181019)</f>
+        <f>BDH("XLK 10/19/18 C71 Equity","PX_LAST",20180801,20181019)</f>
         <v/>
       </c>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2">
-        <f>BDH("MSFT 11/16/18 C111 Equity","PX_LAST",20180904,20181116)</f>
+        <f>BDH("XLK 11/16/18 C75 Equity","PX_LAST",20180904,20181116)</f>
         <v/>
       </c>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2">
-        <f>BDH("MSFT 12/21/18 C115 Equity","PX_LAST",20181001,20181221)</f>
+        <f>BDH("XLK 12/21/18 C75 Equity","PX_LAST",20181001,20181221)</f>
         <v/>
       </c>
       <c r="CO2" t="inlineStr"/>
       <c r="CP2">
-        <f>BDH("MSFT 1/18/19 C105 Equity","PX_LAST",20181101,20190118)</f>
+        <f>BDH("XLK 1/18/19 C70 Equity","PX_LAST",20181101,20190118)</f>
         <v/>
       </c>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2">
-        <f>BDH("MSFT 2/15/19 C112 Equity","PX_LAST",20181203,20190215)</f>
+        <f>BDH("XLK 2/15/19 C69 Equity","PX_LAST",20181203,20190215)</f>
         <v/>
       </c>
       <c r="CS2" t="inlineStr"/>
       <c r="CT2">
-        <f>BDH("MSFT 3/15/19 C101 Equity","PX_LAST",20190102,20190315)</f>
+        <f>BDH("XLK 3/15/19 C62 Equity","PX_LAST",20190102,20190315)</f>
         <v/>
       </c>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2">
-        <f>BDH("MSFT 4/18/19 C102 Equity","PX_LAST",20190201,20190418)</f>
+        <f>BDH("XLK 4/18/19 C66 Equity","PX_LAST",20190201,20190418)</f>
         <v/>
       </c>
       <c r="CW2" t="inlineStr"/>
       <c r="CX2">
-        <f>BDH("MSFT 5/17/19 C112 Equity","PX_LAST",20190301,20190517)</f>
+        <f>BDH("XLK 5/17/19 C71 Equity","PX_LAST",20190301,20190517)</f>
         <v/>
       </c>
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2">
-        <f>BDH("MSFT 6/21/19 C119 Equity","PX_LAST",20190401,20190621)</f>
+        <f>BDH("XLK 6/21/19 C75 Equity","PX_LAST",20190401,20190621)</f>
         <v/>
       </c>
       <c r="DA2" t="inlineStr"/>
       <c r="DB2">
-        <f>BDH("MSFT 7/19/19 C127 Equity","PX_LAST",20190501,20190719)</f>
+        <f>BDH("XLK 7/19/19 C78 Equity","PX_LAST",20190501,20190719)</f>
         <v/>
       </c>
       <c r="DC2" t="inlineStr"/>
       <c r="DD2">
-        <f>BDH("MSFT 8/16/19 C119 Equity","PX_LAST",20190603,20190816)</f>
+        <f>BDH("XLK 8/16/19 C70 Equity","PX_LAST",20190603,20190816)</f>
         <v/>
       </c>
       <c r="DE2" t="inlineStr"/>
       <c r="DF2">
-        <f>BDH("MSFT 9/20/19 C135 Equity","PX_LAST",20190701,20190920)</f>
+        <f>BDH("XLK 9/20/19 C79 Equity","PX_LAST",20190701,20190920)</f>
         <v/>
       </c>
       <c r="DG2" t="inlineStr"/>
       <c r="DH2">
-        <f>BDH("MSFT 10/18/19 C138 Equity","PX_LAST",20190801,20191018)</f>
+        <f>BDH("XLK 10/18/19 C80 Equity","PX_LAST",20190801,20191018)</f>
         <v/>
       </c>
       <c r="DI2" t="inlineStr"/>
       <c r="DJ2">
-        <f>BDH("MSFT 11/15/19 C136 Equity","PX_LAST",20190903,20191115)</f>
+        <f>BDH("XLK 11/15/19 C78 Equity","PX_LAST",20190903,20191115)</f>
         <v/>
       </c>
       <c r="DK2" t="inlineStr"/>
       <c r="DL2">
-        <f>BDH("MSFT 12/20/19 C137 Equity","PX_LAST",20191001,20191220)</f>
+        <f>BDH("XLK 12/20/19 C79 Equity","PX_LAST",20191001,20191220)</f>
         <v/>
       </c>
       <c r="DM2" t="inlineStr"/>
       <c r="DN2">
-        <f>BDH("MSFT 1/17/20 C143 Equity","PX_LAST",20191101,20200117)</f>
+        <f>BDH("XLK 1/17/20 C84 Equity","PX_LAST",20191101,20200117)</f>
         <v/>
       </c>
       <c r="DO2" t="inlineStr"/>
       <c r="DP2">
-        <f>BDH("MSFT 2/21/20 C149 Equity","PX_LAST",20191202,20200221)</f>
+        <f>BDH("XLK 2/21/20 C86 Equity","PX_LAST",20191202,20200221)</f>
         <v/>
       </c>
       <c r="DQ2" t="inlineStr"/>
       <c r="DR2">
-        <f>BDH("MSFT 3/20/20 C160 Equity","PX_LAST",20200102,20200320)</f>
+        <f>BDH("XLK 3/20/20 C93 Equity","PX_LAST",20200102,20200320)</f>
         <v/>
       </c>
       <c r="DS2" t="inlineStr"/>
       <c r="DT2">
-        <f>BDH("MSFT 4/17/20 C174 Equity","PX_LAST",20200203,20200417)</f>
+        <f>BDH("XLK 4/17/20 C96 Equity","PX_LAST",20200203,20200417)</f>
         <v/>
       </c>
       <c r="DU2" t="inlineStr"/>
       <c r="DV2">
-        <f>BDH("MSFT 5/15/20 C172 Equity","PX_LAST",20200302,20200515)</f>
+        <f>BDH("XLK 5/15/20 C93 Equity","PX_LAST",20200302,20200515)</f>
         <v/>
       </c>
       <c r="DW2" t="inlineStr"/>
       <c r="DX2">
-        <f>BDH("MSFT 6/19/20 C152 Equity","PX_LAST",20200401,20200619)</f>
+        <f>BDH("XLK 6/19/20 C76 Equity","PX_LAST",20200401,20200619)</f>
         <v/>
       </c>
       <c r="DY2" t="inlineStr"/>
       <c r="DZ2">
-        <f>BDH("MSFT 7/17/20 C174 Equity","PX_LAST",20200501,20200717)</f>
+        <f>BDH("XLK 7/17/20 C88 Equity","PX_LAST",20200501,20200717)</f>
         <v/>
       </c>
       <c r="EA2" t="inlineStr"/>
       <c r="EB2">
-        <f>BDH("MSFT 8/21/20 C182 Equity","PX_LAST",20200601,20200821)</f>
+        <f>BDH("XLK 8/21/20 C97 Equity","PX_LAST",20200601,20200821)</f>
         <v/>
       </c>
       <c r="EC2" t="inlineStr"/>
       <c r="ED2">
-        <f>BDH("MSFT 9/18/20 C204 Equity","PX_LAST",20200701,20200918)</f>
+        <f>BDH("XLK 9/18/20 C104 Equity","PX_LAST",20200701,20200918)</f>
         <v/>
       </c>
       <c r="EE2" t="inlineStr"/>
       <c r="EF2">
-        <f>BDH("MSFT 10/16/20 C216 Equity","PX_LAST",20200803,20201016)</f>
+        <f>BDH("XLK 10/16/20 C113 Equity","PX_LAST",20200803,20201016)</f>
+        <v/>
+      </c>
+      <c r="EG2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 3/20/15 P41</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 4/17/15 P40</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 5/15/15 P43</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 6/19/15 P41</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 7/17/15 P43</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 8/21/15 P43</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 9/18/15 P41</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 10/16/15 P42</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 11/20/15 P38</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 12/18/15 P39</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr"/>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 1/15/16 P44</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 2/19/16 P44</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 3/18/16 P42</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr"/>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 4/15/16 P41</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 5/20/16 P42</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr"/>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 6/17/16 P44</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 7/15/16 P42</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr"/>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 8/19/16 P44</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr"/>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 9/16/16 P43</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr"/>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 10/21/16 P46</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 11/18/16 P47</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr"/>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 12/16/16 P47</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr"/>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 1/20/17 P47</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 2/17/17 P46</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 3/17/17 P48</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr"/>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 4/21/17 P50</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr"/>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 5/19/17 P53</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr"/>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 6/16/17 P53</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 7/21/17 P54</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr"/>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 8/18/17 P56</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr"/>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 9/15/17 P54</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr"/>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 10/20/17 P57</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr"/>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 11/17/17 P58</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr"/>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 12/15/17 P59</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr"/>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 1/19/18 P62</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr"/>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 2/16/18 P63</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr"/>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 3/16/18 P64</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr"/>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 4/20/18 P68</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr"/>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 5/18/18 P67</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr"/>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 6/15/18 P63</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 7/20/18 P66</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr"/>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 8/17/18 P71</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr"/>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 9/21/18 P70</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr"/>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 10/19/18 P71</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr"/>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 11/16/18 P75</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr"/>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 12/21/18 P75</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr"/>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 1/18/19 P70</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr"/>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 2/15/19 P69</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr"/>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 3/15/19 P62</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr"/>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 4/18/19 P66</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr"/>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 5/17/19 P71</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr"/>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 6/21/19 P75</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr"/>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 7/19/19 P78</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr"/>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 8/16/19 P70</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr"/>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 9/20/19 P79</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr"/>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 10/18/19 P80</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr"/>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 11/15/19 P78</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr"/>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 12/20/19 P79</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr"/>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 1/17/20 P84</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr"/>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 2/21/20 P86</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr"/>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 3/20/20 P93</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr"/>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 4/17/20 P96</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr"/>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 5/15/20 P93</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr"/>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 6/19/20 P76</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr"/>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 7/17/20 P88</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr"/>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 8/21/20 P97</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr"/>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 9/18/20 P104</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr"/>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>XLK 10/16/20 P113</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>BDH("XLK 3/20/15 P41 Equity","PX_LAST",20150102,20150320)</f>
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2">
+        <f>BDH("XLK 4/17/15 P40 Equity","PX_LAST",20150202,20150417)</f>
+        <v/>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2">
+        <f>BDH("XLK 5/15/15 P43 Equity","PX_LAST",20150302,20150515)</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2">
+        <f>BDH("XLK 6/19/15 P41 Equity","PX_LAST",20150401,20150619)</f>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2">
+        <f>BDH("XLK 7/17/15 P43 Equity","PX_LAST",20150501,20150717)</f>
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2">
+        <f>BDH("XLK 8/21/15 P43 Equity","PX_LAST",20150601,20150821)</f>
+        <v/>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2">
+        <f>BDH("XLK 9/18/15 P41 Equity","PX_LAST",20150701,20150918)</f>
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2">
+        <f>BDH("XLK 10/16/15 P42 Equity","PX_LAST",20150803,20151016)</f>
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2">
+        <f>BDH("XLK 11/20/15 P38 Equity","PX_LAST",20150901,20151120)</f>
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2">
+        <f>BDH("XLK 12/18/15 P39 Equity","PX_LAST",20151001,20151218)</f>
+        <v/>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2">
+        <f>BDH("XLK 1/15/16 P44 Equity","PX_LAST",20151102,20160115)</f>
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2">
+        <f>BDH("XLK 2/19/16 P44 Equity","PX_LAST",20151201,20160219)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2">
+        <f>BDH("XLK 3/18/16 P42 Equity","PX_LAST",20160104,20160318)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2">
+        <f>BDH("XLK 4/15/16 P41 Equity","PX_LAST",20160201,20160415)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2">
+        <f>BDH("XLK 5/20/16 P42 Equity","PX_LAST",20160301,20160520)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2">
+        <f>BDH("XLK 6/17/16 P44 Equity","PX_LAST",20160401,20160617)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2">
+        <f>BDH("XLK 7/15/16 P42 Equity","PX_LAST",20160502,20160715)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2">
+        <f>BDH("XLK 8/19/16 P44 Equity","PX_LAST",20160601,20160819)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2">
+        <f>BDH("XLK 9/16/16 P43 Equity","PX_LAST",20160701,20160916)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2">
+        <f>BDH("XLK 10/21/16 P46 Equity","PX_LAST",20160801,20161021)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2">
+        <f>BDH("XLK 11/18/16 P47 Equity","PX_LAST",20160901,20161118)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2">
+        <f>BDH("XLK 12/16/16 P47 Equity","PX_LAST",20161003,20161216)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2">
+        <f>BDH("XLK 1/20/17 P47 Equity","PX_LAST",20161101,20170120)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2">
+        <f>BDH("XLK 2/17/17 P46 Equity","PX_LAST",20161201,20170217)</f>
+        <v/>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2">
+        <f>BDH("XLK 3/17/17 P48 Equity","PX_LAST",20170103,20170317)</f>
+        <v/>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2">
+        <f>BDH("XLK 4/21/17 P50 Equity","PX_LAST",20170201,20170421)</f>
+        <v/>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2">
+        <f>BDH("XLK 5/19/17 P53 Equity","PX_LAST",20170301,20170519)</f>
+        <v/>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2">
+        <f>BDH("XLK 6/16/17 P53 Equity","PX_LAST",20170403,20170616)</f>
+        <v/>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2">
+        <f>BDH("XLK 7/21/17 P54 Equity","PX_LAST",20170501,20170721)</f>
+        <v/>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2">
+        <f>BDH("XLK 8/18/17 P56 Equity","PX_LAST",20170601,20170818)</f>
+        <v/>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2">
+        <f>BDH("XLK 9/15/17 P54 Equity","PX_LAST",20170703,20170915)</f>
+        <v/>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2">
+        <f>BDH("XLK 10/20/17 P57 Equity","PX_LAST",20170801,20171020)</f>
+        <v/>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2">
+        <f>BDH("XLK 11/17/17 P58 Equity","PX_LAST",20170901,20171117)</f>
+        <v/>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2">
+        <f>BDH("XLK 12/15/17 P59 Equity","PX_LAST",20171002,20171215)</f>
+        <v/>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2">
+        <f>BDH("XLK 1/19/18 P62 Equity","PX_LAST",20171101,20180119)</f>
+        <v/>
+      </c>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2">
+        <f>BDH("XLK 2/16/18 P63 Equity","PX_LAST",20171201,20180216)</f>
+        <v/>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2">
+        <f>BDH("XLK 3/16/18 P64 Equity","PX_LAST",20180102,20180316)</f>
+        <v/>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2">
+        <f>BDH("XLK 4/20/18 P68 Equity","PX_LAST",20180201,20180420)</f>
+        <v/>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2">
+        <f>BDH("XLK 5/18/18 P67 Equity","PX_LAST",20180301,20180518)</f>
+        <v/>
+      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2">
+        <f>BDH("XLK 6/15/18 P63 Equity","PX_LAST",20180402,20180615)</f>
+        <v/>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2">
+        <f>BDH("XLK 7/20/18 P66 Equity","PX_LAST",20180501,20180720)</f>
+        <v/>
+      </c>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2">
+        <f>BDH("XLK 8/17/18 P71 Equity","PX_LAST",20180601,20180817)</f>
+        <v/>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2">
+        <f>BDH("XLK 9/21/18 P70 Equity","PX_LAST",20180702,20180921)</f>
+        <v/>
+      </c>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2">
+        <f>BDH("XLK 10/19/18 P71 Equity","PX_LAST",20180801,20181019)</f>
+        <v/>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2">
+        <f>BDH("XLK 11/16/18 P75 Equity","PX_LAST",20180904,20181116)</f>
+        <v/>
+      </c>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2">
+        <f>BDH("XLK 12/21/18 P75 Equity","PX_LAST",20181001,20181221)</f>
+        <v/>
+      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2">
+        <f>BDH("XLK 1/18/19 P70 Equity","PX_LAST",20181101,20190118)</f>
+        <v/>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2">
+        <f>BDH("XLK 2/15/19 P69 Equity","PX_LAST",20181203,20190215)</f>
+        <v/>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2">
+        <f>BDH("XLK 3/15/19 P62 Equity","PX_LAST",20190102,20190315)</f>
+        <v/>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2">
+        <f>BDH("XLK 4/18/19 P66 Equity","PX_LAST",20190201,20190418)</f>
+        <v/>
+      </c>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2">
+        <f>BDH("XLK 5/17/19 P71 Equity","PX_LAST",20190301,20190517)</f>
+        <v/>
+      </c>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2">
+        <f>BDH("XLK 6/21/19 P75 Equity","PX_LAST",20190401,20190621)</f>
+        <v/>
+      </c>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2">
+        <f>BDH("XLK 7/19/19 P78 Equity","PX_LAST",20190501,20190719)</f>
+        <v/>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2">
+        <f>BDH("XLK 8/16/19 P70 Equity","PX_LAST",20190603,20190816)</f>
+        <v/>
+      </c>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2">
+        <f>BDH("XLK 9/20/19 P79 Equity","PX_LAST",20190701,20190920)</f>
+        <v/>
+      </c>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2">
+        <f>BDH("XLK 10/18/19 P80 Equity","PX_LAST",20190801,20191018)</f>
+        <v/>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2">
+        <f>BDH("XLK 11/15/19 P78 Equity","PX_LAST",20190903,20191115)</f>
+        <v/>
+      </c>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2">
+        <f>BDH("XLK 12/20/19 P79 Equity","PX_LAST",20191001,20191220)</f>
+        <v/>
+      </c>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2">
+        <f>BDH("XLK 1/17/20 P84 Equity","PX_LAST",20191101,20200117)</f>
+        <v/>
+      </c>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2">
+        <f>BDH("XLK 2/21/20 P86 Equity","PX_LAST",20191202,20200221)</f>
+        <v/>
+      </c>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2">
+        <f>BDH("XLK 3/20/20 P93 Equity","PX_LAST",20200102,20200320)</f>
+        <v/>
+      </c>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2">
+        <f>BDH("XLK 4/17/20 P96 Equity","PX_LAST",20200203,20200417)</f>
+        <v/>
+      </c>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2">
+        <f>BDH("XLK 5/15/20 P93 Equity","PX_LAST",20200302,20200515)</f>
+        <v/>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2">
+        <f>BDH("XLK 6/19/20 P76 Equity","PX_LAST",20200401,20200619)</f>
+        <v/>
+      </c>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2">
+        <f>BDH("XLK 7/17/20 P88 Equity","PX_LAST",20200501,20200717)</f>
+        <v/>
+      </c>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2">
+        <f>BDH("XLK 8/21/20 P97 Equity","PX_LAST",20200601,20200821)</f>
+        <v/>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2">
+        <f>BDH("XLK 9/18/20 P104 Equity","PX_LAST",20200701,20200918)</f>
+        <v/>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2">
+        <f>BDH("XLK 10/16/20 P113 Equity","PX_LAST",20200803,20201016)</f>
+        <v/>
+      </c>
+      <c r="EG2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/20/15 C20</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/17/15 C18</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/15/15 C19</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/19/15 C19</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/17/15 C19</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/21/15 C20</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/18/15 C20</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/16/15 C20</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 11/20/15 C18</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 12/18/15 C18</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr"/>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 1/15/16 C19</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 2/19/16 C20</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/18/16 C18</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr"/>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/15/16 C17</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/20/16 C17</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr"/>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/17/16 C18</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/15/16 C19</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr"/>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/19/16 C19</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr"/>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/16/16 C18</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr"/>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/21/16 C19</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 11/18/16 C19</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr"/>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 12/16/16 C19</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr"/>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 1/20/17 C19</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 2/17/17 C22</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/17/17 C23</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr"/>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/21/17 C23</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr"/>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/19/17 C25</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr"/>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/16/17 C23</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/21/17 C23</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr"/>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/18/17 C23</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr"/>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/15/17 C25</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr"/>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/20/17 C25</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr"/>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 11/17/17 C24</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr"/>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 12/15/17 C26</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr"/>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 1/19/18 C26</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr"/>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 2/16/18 C27</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr"/>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/16/18 C27</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr"/>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/20/18 C30</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr"/>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/18/18 C28</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr"/>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/15/18 C26</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/20/18 C27</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr"/>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/17/18 C27</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr"/>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/21/18 C26</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr"/>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/19/18 C27</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr"/>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 11/16/18 C28</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr"/>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 12/21/18 C27</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr"/>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 1/18/19 C26</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr"/>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 2/15/19 C27</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr"/>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/15/19 C24</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr"/>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/18/19 C26</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr"/>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/17/19 C26</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr"/>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/21/19 C26</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr"/>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/19/19 C27</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr"/>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/16/19 C26</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr"/>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/20/19 C27</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr"/>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/18/19 C27</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr"/>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 11/15/19 C26</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr"/>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 12/20/19 C27</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr"/>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 1/17/20 C29</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr"/>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 2/21/20 C29</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr"/>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/20/20 C31</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr"/>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/17/20 C30</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr"/>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/15/20 C27</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr"/>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/19/20 C19</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr"/>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/17/20 C22</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr"/>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/21/20 C23</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr"/>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/18/20 C22</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr"/>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/16/20 C24</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>BDH("XLF 3/20/15 C20 Equity","PX_LAST",20150102,20150320)</f>
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2">
+        <f>BDH("XLF 4/17/15 C18 Equity","PX_LAST",20150202,20150417)</f>
+        <v/>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2">
+        <f>BDH("XLF 5/15/15 C19 Equity","PX_LAST",20150302,20150515)</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2">
+        <f>BDH("XLF 6/19/15 C19 Equity","PX_LAST",20150401,20150619)</f>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2">
+        <f>BDH("XLF 7/17/15 C19 Equity","PX_LAST",20150501,20150717)</f>
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2">
+        <f>BDH("XLF 8/21/15 C20 Equity","PX_LAST",20150601,20150821)</f>
+        <v/>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2">
+        <f>BDH("XLF 9/18/15 C20 Equity","PX_LAST",20150701,20150918)</f>
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2">
+        <f>BDH("XLF 10/16/15 C20 Equity","PX_LAST",20150803,20151016)</f>
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2">
+        <f>BDH("XLF 11/20/15 C18 Equity","PX_LAST",20150901,20151120)</f>
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2">
+        <f>BDH("XLF 12/18/15 C18 Equity","PX_LAST",20151001,20151218)</f>
+        <v/>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2">
+        <f>BDH("XLF 1/15/16 C19 Equity","PX_LAST",20151102,20160115)</f>
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2">
+        <f>BDH("XLF 2/19/16 C20 Equity","PX_LAST",20151201,20160219)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2">
+        <f>BDH("XLF 3/18/16 C18 Equity","PX_LAST",20160104,20160318)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2">
+        <f>BDH("XLF 4/15/16 C17 Equity","PX_LAST",20160201,20160415)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2">
+        <f>BDH("XLF 5/20/16 C17 Equity","PX_LAST",20160301,20160520)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2">
+        <f>BDH("XLF 6/17/16 C18 Equity","PX_LAST",20160401,20160617)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2">
+        <f>BDH("XLF 7/15/16 C19 Equity","PX_LAST",20160502,20160715)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2">
+        <f>BDH("XLF 8/19/16 C19 Equity","PX_LAST",20160601,20160819)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2">
+        <f>BDH("XLF 9/16/16 C18 Equity","PX_LAST",20160701,20160916)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2">
+        <f>BDH("XLF 10/21/16 C19 Equity","PX_LAST",20160801,20161021)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2">
+        <f>BDH("XLF 11/18/16 C19 Equity","PX_LAST",20160901,20161118)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2">
+        <f>BDH("XLF 12/16/16 C19 Equity","PX_LAST",20161003,20161216)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2">
+        <f>BDH("XLF 1/20/17 C19 Equity","PX_LAST",20161101,20170120)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2">
+        <f>BDH("XLF 2/17/17 C22 Equity","PX_LAST",20161201,20170217)</f>
+        <v/>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2">
+        <f>BDH("XLF 3/17/17 C23 Equity","PX_LAST",20170103,20170317)</f>
+        <v/>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2">
+        <f>BDH("XLF 4/21/17 C23 Equity","PX_LAST",20170201,20170421)</f>
+        <v/>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2">
+        <f>BDH("XLF 5/19/17 C25 Equity","PX_LAST",20170301,20170519)</f>
+        <v/>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2">
+        <f>BDH("XLF 6/16/17 C23 Equity","PX_LAST",20170403,20170616)</f>
+        <v/>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2">
+        <f>BDH("XLF 7/21/17 C23 Equity","PX_LAST",20170501,20170721)</f>
+        <v/>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2">
+        <f>BDH("XLF 8/18/17 C23 Equity","PX_LAST",20170601,20170818)</f>
+        <v/>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2">
+        <f>BDH("XLF 9/15/17 C25 Equity","PX_LAST",20170703,20170915)</f>
+        <v/>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2">
+        <f>BDH("XLF 10/20/17 C25 Equity","PX_LAST",20170801,20171020)</f>
+        <v/>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2">
+        <f>BDH("XLF 11/17/17 C24 Equity","PX_LAST",20170901,20171117)</f>
+        <v/>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2">
+        <f>BDH("XLF 12/15/17 C26 Equity","PX_LAST",20171002,20171215)</f>
+        <v/>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2">
+        <f>BDH("XLF 1/19/18 C26 Equity","PX_LAST",20171101,20180119)</f>
+        <v/>
+      </c>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2">
+        <f>BDH("XLF 2/16/18 C27 Equity","PX_LAST",20171201,20180216)</f>
+        <v/>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2">
+        <f>BDH("XLF 3/16/18 C27 Equity","PX_LAST",20180102,20180316)</f>
+        <v/>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2">
+        <f>BDH("XLF 4/20/18 C30 Equity","PX_LAST",20180201,20180420)</f>
+        <v/>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2">
+        <f>BDH("XLF 5/18/18 C28 Equity","PX_LAST",20180301,20180518)</f>
+        <v/>
+      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2">
+        <f>BDH("XLF 6/15/18 C26 Equity","PX_LAST",20180402,20180615)</f>
+        <v/>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2">
+        <f>BDH("XLF 7/20/18 C27 Equity","PX_LAST",20180501,20180720)</f>
+        <v/>
+      </c>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2">
+        <f>BDH("XLF 8/17/18 C27 Equity","PX_LAST",20180601,20180817)</f>
+        <v/>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2">
+        <f>BDH("XLF 9/21/18 C26 Equity","PX_LAST",20180702,20180921)</f>
+        <v/>
+      </c>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2">
+        <f>BDH("XLF 10/19/18 C27 Equity","PX_LAST",20180801,20181019)</f>
+        <v/>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2">
+        <f>BDH("XLF 11/16/18 C28 Equity","PX_LAST",20180904,20181116)</f>
+        <v/>
+      </c>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2">
+        <f>BDH("XLF 12/21/18 C27 Equity","PX_LAST",20181001,20181221)</f>
+        <v/>
+      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2">
+        <f>BDH("XLF 1/18/19 C26 Equity","PX_LAST",20181101,20190118)</f>
+        <v/>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2">
+        <f>BDH("XLF 2/15/19 C27 Equity","PX_LAST",20181203,20190215)</f>
+        <v/>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2">
+        <f>BDH("XLF 3/15/19 C24 Equity","PX_LAST",20190102,20190315)</f>
+        <v/>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2">
+        <f>BDH("XLF 4/18/19 C26 Equity","PX_LAST",20190201,20190418)</f>
+        <v/>
+      </c>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2">
+        <f>BDH("XLF 5/17/19 C26 Equity","PX_LAST",20190301,20190517)</f>
+        <v/>
+      </c>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2">
+        <f>BDH("XLF 6/21/19 C26 Equity","PX_LAST",20190401,20190621)</f>
+        <v/>
+      </c>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2">
+        <f>BDH("XLF 7/19/19 C27 Equity","PX_LAST",20190501,20190719)</f>
+        <v/>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2">
+        <f>BDH("XLF 8/16/19 C26 Equity","PX_LAST",20190603,20190816)</f>
+        <v/>
+      </c>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2">
+        <f>BDH("XLF 9/20/19 C27 Equity","PX_LAST",20190701,20190920)</f>
+        <v/>
+      </c>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2">
+        <f>BDH("XLF 10/18/19 C27 Equity","PX_LAST",20190801,20191018)</f>
+        <v/>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2">
+        <f>BDH("XLF 11/15/19 C26 Equity","PX_LAST",20190903,20191115)</f>
+        <v/>
+      </c>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2">
+        <f>BDH("XLF 12/20/19 C27 Equity","PX_LAST",20191001,20191220)</f>
+        <v/>
+      </c>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2">
+        <f>BDH("XLF 1/17/20 C29 Equity","PX_LAST",20191101,20200117)</f>
+        <v/>
+      </c>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2">
+        <f>BDH("XLF 2/21/20 C29 Equity","PX_LAST",20191202,20200221)</f>
+        <v/>
+      </c>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2">
+        <f>BDH("XLF 3/20/20 C31 Equity","PX_LAST",20200102,20200320)</f>
+        <v/>
+      </c>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2">
+        <f>BDH("XLF 4/17/20 C30 Equity","PX_LAST",20200203,20200417)</f>
+        <v/>
+      </c>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2">
+        <f>BDH("XLF 5/15/20 C27 Equity","PX_LAST",20200302,20200515)</f>
+        <v/>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2">
+        <f>BDH("XLF 6/19/20 C19 Equity","PX_LAST",20200401,20200619)</f>
+        <v/>
+      </c>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2">
+        <f>BDH("XLF 7/17/20 C22 Equity","PX_LAST",20200501,20200717)</f>
+        <v/>
+      </c>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2">
+        <f>BDH("XLF 8/21/20 C23 Equity","PX_LAST",20200601,20200821)</f>
+        <v/>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2">
+        <f>BDH("XLF 9/18/20 C22 Equity","PX_LAST",20200701,20200918)</f>
+        <v/>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2">
+        <f>BDH("XLF 10/16/20 C24 Equity","PX_LAST",20200803,20201016)</f>
+        <v/>
+      </c>
+      <c r="EG2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/20/15 P20</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/17/15 P18</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/15/15 P19</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/19/15 P19</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/17/15 P19</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/21/15 P20</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/18/15 P20</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/16/15 P20</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 11/20/15 P18</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 12/18/15 P18</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr"/>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 1/15/16 P19</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 2/19/16 P20</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/18/16 P18</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr"/>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/15/16 P17</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/20/16 P17</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr"/>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/17/16 P18</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/15/16 P19</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr"/>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/19/16 P19</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr"/>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/16/16 P18</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr"/>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/21/16 P19</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 11/18/16 P19</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr"/>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 12/16/16 P19</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr"/>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 1/20/17 P19</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 2/17/17 P22</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/17/17 P23</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr"/>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/21/17 P23</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr"/>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/19/17 P25</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr"/>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/16/17 P23</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/21/17 P23</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr"/>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/18/17 P23</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr"/>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/15/17 P25</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr"/>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/20/17 P25</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr"/>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 11/17/17 P24</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr"/>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 12/15/17 P26</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr"/>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 1/19/18 P26</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr"/>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 2/16/18 P27</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr"/>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/16/18 P27</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr"/>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/20/18 P30</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr"/>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/18/18 P28</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr"/>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/15/18 P26</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/20/18 P27</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr"/>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/17/18 P27</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr"/>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/21/18 P26</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr"/>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/19/18 P27</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr"/>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 11/16/18 P28</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr"/>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 12/21/18 P27</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr"/>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 1/18/19 P26</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr"/>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 2/15/19 P27</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr"/>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/15/19 P24</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr"/>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/18/19 P26</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr"/>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/17/19 P26</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr"/>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/21/19 P26</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr"/>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/19/19 P27</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr"/>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/16/19 P26</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr"/>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/20/19 P27</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr"/>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/18/19 P27</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr"/>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 11/15/19 P26</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr"/>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 12/20/19 P27</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr"/>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 1/17/20 P29</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr"/>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 2/21/20 P29</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr"/>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 3/20/20 P31</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr"/>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 4/17/20 P30</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr"/>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 5/15/20 P27</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr"/>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 6/19/20 P19</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr"/>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 7/17/20 P22</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr"/>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 8/21/20 P23</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr"/>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 9/18/20 P22</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr"/>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>XLF 10/16/20 P24</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>BDH("XLF 3/20/15 P20 Equity","PX_LAST",20150102,20150320)</f>
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2">
+        <f>BDH("XLF 4/17/15 P18 Equity","PX_LAST",20150202,20150417)</f>
+        <v/>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2">
+        <f>BDH("XLF 5/15/15 P19 Equity","PX_LAST",20150302,20150515)</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2">
+        <f>BDH("XLF 6/19/15 P19 Equity","PX_LAST",20150401,20150619)</f>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2">
+        <f>BDH("XLF 7/17/15 P19 Equity","PX_LAST",20150501,20150717)</f>
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2">
+        <f>BDH("XLF 8/21/15 P20 Equity","PX_LAST",20150601,20150821)</f>
+        <v/>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2">
+        <f>BDH("XLF 9/18/15 P20 Equity","PX_LAST",20150701,20150918)</f>
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2">
+        <f>BDH("XLF 10/16/15 P20 Equity","PX_LAST",20150803,20151016)</f>
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2">
+        <f>BDH("XLF 11/20/15 P18 Equity","PX_LAST",20150901,20151120)</f>
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2">
+        <f>BDH("XLF 12/18/15 P18 Equity","PX_LAST",20151001,20151218)</f>
+        <v/>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2">
+        <f>BDH("XLF 1/15/16 P19 Equity","PX_LAST",20151102,20160115)</f>
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2">
+        <f>BDH("XLF 2/19/16 P20 Equity","PX_LAST",20151201,20160219)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2">
+        <f>BDH("XLF 3/18/16 P18 Equity","PX_LAST",20160104,20160318)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2">
+        <f>BDH("XLF 4/15/16 P17 Equity","PX_LAST",20160201,20160415)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2">
+        <f>BDH("XLF 5/20/16 P17 Equity","PX_LAST",20160301,20160520)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2">
+        <f>BDH("XLF 6/17/16 P18 Equity","PX_LAST",20160401,20160617)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2">
+        <f>BDH("XLF 7/15/16 P19 Equity","PX_LAST",20160502,20160715)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2">
+        <f>BDH("XLF 8/19/16 P19 Equity","PX_LAST",20160601,20160819)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2">
+        <f>BDH("XLF 9/16/16 P18 Equity","PX_LAST",20160701,20160916)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2">
+        <f>BDH("XLF 10/21/16 P19 Equity","PX_LAST",20160801,20161021)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2">
+        <f>BDH("XLF 11/18/16 P19 Equity","PX_LAST",20160901,20161118)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2">
+        <f>BDH("XLF 12/16/16 P19 Equity","PX_LAST",20161003,20161216)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2">
+        <f>BDH("XLF 1/20/17 P19 Equity","PX_LAST",20161101,20170120)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2">
+        <f>BDH("XLF 2/17/17 P22 Equity","PX_LAST",20161201,20170217)</f>
+        <v/>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2">
+        <f>BDH("XLF 3/17/17 P23 Equity","PX_LAST",20170103,20170317)</f>
+        <v/>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2">
+        <f>BDH("XLF 4/21/17 P23 Equity","PX_LAST",20170201,20170421)</f>
+        <v/>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2">
+        <f>BDH("XLF 5/19/17 P25 Equity","PX_LAST",20170301,20170519)</f>
+        <v/>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2">
+        <f>BDH("XLF 6/16/17 P23 Equity","PX_LAST",20170403,20170616)</f>
+        <v/>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2">
+        <f>BDH("XLF 7/21/17 P23 Equity","PX_LAST",20170501,20170721)</f>
+        <v/>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2">
+        <f>BDH("XLF 8/18/17 P23 Equity","PX_LAST",20170601,20170818)</f>
+        <v/>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2">
+        <f>BDH("XLF 9/15/17 P25 Equity","PX_LAST",20170703,20170915)</f>
+        <v/>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2">
+        <f>BDH("XLF 10/20/17 P25 Equity","PX_LAST",20170801,20171020)</f>
+        <v/>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2">
+        <f>BDH("XLF 11/17/17 P24 Equity","PX_LAST",20170901,20171117)</f>
+        <v/>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2">
+        <f>BDH("XLF 12/15/17 P26 Equity","PX_LAST",20171002,20171215)</f>
+        <v/>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2">
+        <f>BDH("XLF 1/19/18 P26 Equity","PX_LAST",20171101,20180119)</f>
+        <v/>
+      </c>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2">
+        <f>BDH("XLF 2/16/18 P27 Equity","PX_LAST",20171201,20180216)</f>
+        <v/>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2">
+        <f>BDH("XLF 3/16/18 P27 Equity","PX_LAST",20180102,20180316)</f>
+        <v/>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2">
+        <f>BDH("XLF 4/20/18 P30 Equity","PX_LAST",20180201,20180420)</f>
+        <v/>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2">
+        <f>BDH("XLF 5/18/18 P28 Equity","PX_LAST",20180301,20180518)</f>
+        <v/>
+      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2">
+        <f>BDH("XLF 6/15/18 P26 Equity","PX_LAST",20180402,20180615)</f>
+        <v/>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2">
+        <f>BDH("XLF 7/20/18 P27 Equity","PX_LAST",20180501,20180720)</f>
+        <v/>
+      </c>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2">
+        <f>BDH("XLF 8/17/18 P27 Equity","PX_LAST",20180601,20180817)</f>
+        <v/>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2">
+        <f>BDH("XLF 9/21/18 P26 Equity","PX_LAST",20180702,20180921)</f>
+        <v/>
+      </c>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2">
+        <f>BDH("XLF 10/19/18 P27 Equity","PX_LAST",20180801,20181019)</f>
+        <v/>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2">
+        <f>BDH("XLF 11/16/18 P28 Equity","PX_LAST",20180904,20181116)</f>
+        <v/>
+      </c>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2">
+        <f>BDH("XLF 12/21/18 P27 Equity","PX_LAST",20181001,20181221)</f>
+        <v/>
+      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2">
+        <f>BDH("XLF 1/18/19 P26 Equity","PX_LAST",20181101,20190118)</f>
+        <v/>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2">
+        <f>BDH("XLF 2/15/19 P27 Equity","PX_LAST",20181203,20190215)</f>
+        <v/>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2">
+        <f>BDH("XLF 3/15/19 P24 Equity","PX_LAST",20190102,20190315)</f>
+        <v/>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2">
+        <f>BDH("XLF 4/18/19 P26 Equity","PX_LAST",20190201,20190418)</f>
+        <v/>
+      </c>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2">
+        <f>BDH("XLF 5/17/19 P26 Equity","PX_LAST",20190301,20190517)</f>
+        <v/>
+      </c>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2">
+        <f>BDH("XLF 6/21/19 P26 Equity","PX_LAST",20190401,20190621)</f>
+        <v/>
+      </c>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2">
+        <f>BDH("XLF 7/19/19 P27 Equity","PX_LAST",20190501,20190719)</f>
+        <v/>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2">
+        <f>BDH("XLF 8/16/19 P26 Equity","PX_LAST",20190603,20190816)</f>
+        <v/>
+      </c>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2">
+        <f>BDH("XLF 9/20/19 P27 Equity","PX_LAST",20190701,20190920)</f>
+        <v/>
+      </c>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2">
+        <f>BDH("XLF 10/18/19 P27 Equity","PX_LAST",20190801,20191018)</f>
+        <v/>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2">
+        <f>BDH("XLF 11/15/19 P26 Equity","PX_LAST",20190903,20191115)</f>
+        <v/>
+      </c>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2">
+        <f>BDH("XLF 12/20/19 P27 Equity","PX_LAST",20191001,20191220)</f>
+        <v/>
+      </c>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2">
+        <f>BDH("XLF 1/17/20 P29 Equity","PX_LAST",20191101,20200117)</f>
+        <v/>
+      </c>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2">
+        <f>BDH("XLF 2/21/20 P29 Equity","PX_LAST",20191202,20200221)</f>
+        <v/>
+      </c>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2">
+        <f>BDH("XLF 3/20/20 P31 Equity","PX_LAST",20200102,20200320)</f>
+        <v/>
+      </c>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2">
+        <f>BDH("XLF 4/17/20 P30 Equity","PX_LAST",20200203,20200417)</f>
+        <v/>
+      </c>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2">
+        <f>BDH("XLF 5/15/20 P27 Equity","PX_LAST",20200302,20200515)</f>
+        <v/>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2">
+        <f>BDH("XLF 6/19/20 P19 Equity","PX_LAST",20200401,20200619)</f>
+        <v/>
+      </c>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2">
+        <f>BDH("XLF 7/17/20 P22 Equity","PX_LAST",20200501,20200717)</f>
+        <v/>
+      </c>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2">
+        <f>BDH("XLF 8/21/20 P23 Equity","PX_LAST",20200601,20200821)</f>
+        <v/>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2">
+        <f>BDH("XLF 9/18/20 P22 Equity","PX_LAST",20200701,20200918)</f>
+        <v/>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2">
+        <f>BDH("XLF 10/16/20 P24 Equity","PX_LAST",20200803,20201016)</f>
+        <v/>
+      </c>
+      <c r="EG2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/20/15 C71</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/17/15 C70</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/15/15 C76</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/19/15 C75</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/17/15 C76</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/21/15 C76</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/18/15 C77</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/16/15 C79</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 11/20/15 C73</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 12/18/15 C74</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr"/>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 1/15/16 C81</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 2/19/16 C81</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/18/16 C76</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr"/>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/15/16 C74</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/20/16 C76</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr"/>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/17/16 C79</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/15/16 C80</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr"/>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/19/16 C79</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr"/>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/16/16 C78</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr"/>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/21/16 C81</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 11/18/16 C80</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr"/>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 12/16/16 C79</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr"/>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 1/20/17 C77</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 2/17/17 C81</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/17/17 C81</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr"/>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/21/17 C84</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr"/>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/19/17 C87</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr"/>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/16/17 C87</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/21/17 C90</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr"/>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/18/17 C91</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr"/>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/15/17 C89</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr"/>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/20/17 C91</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr"/>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 11/17/17 C90</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr"/>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 12/15/17 C90</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr"/>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 1/19/18 C92</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr"/>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 2/16/18 C96</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr"/>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/16/18 C100</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr"/>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/20/18 C106</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr"/>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/18/18 C102</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr"/>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/15/18 C98</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/20/18 C103</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr"/>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/17/18 C106</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr"/>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/21/18 C109</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr"/>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/19/18 C110</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr"/>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 11/16/18 C117</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr"/>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 12/21/18 C116</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr"/>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 1/18/19 C107</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr"/>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 2/15/19 C110</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr"/>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/15/19 C99</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr"/>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/18/19 C107</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr"/>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/17/19 C111</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr"/>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/21/19 C115</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr"/>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/19/19 C118</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr"/>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/16/19 C110</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr"/>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/20/19 C120</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr"/>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/18/19 C119</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr"/>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 11/15/19 C119</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr"/>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 12/20/19 C119</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr"/>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 1/17/20 C121</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr"/>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 2/21/20 C121</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr"/>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/20/20 C126</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr"/>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/17/20 C126</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr"/>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/15/20 C119</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr"/>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/19/20 C93</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr"/>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/17/20 C112</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr"/>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/21/20 C125</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr"/>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/18/20 C129</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr"/>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/16/20 C136</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>BDH("XLY 3/20/15 C71 Equity","PX_LAST",20150102,20150320)</f>
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2">
+        <f>BDH("XLY 4/17/15 C70 Equity","PX_LAST",20150202,20150417)</f>
+        <v/>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2">
+        <f>BDH("XLY 5/15/15 C76 Equity","PX_LAST",20150302,20150515)</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2">
+        <f>BDH("XLY 6/19/15 C75 Equity","PX_LAST",20150401,20150619)</f>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2">
+        <f>BDH("XLY 7/17/15 C76 Equity","PX_LAST",20150501,20150717)</f>
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2">
+        <f>BDH("XLY 8/21/15 C76 Equity","PX_LAST",20150601,20150821)</f>
+        <v/>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2">
+        <f>BDH("XLY 9/18/15 C77 Equity","PX_LAST",20150701,20150918)</f>
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2">
+        <f>BDH("XLY 10/16/15 C79 Equity","PX_LAST",20150803,20151016)</f>
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2">
+        <f>BDH("XLY 11/20/15 C73 Equity","PX_LAST",20150901,20151120)</f>
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2">
+        <f>BDH("XLY 12/18/15 C74 Equity","PX_LAST",20151001,20151218)</f>
+        <v/>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2">
+        <f>BDH("XLY 1/15/16 C81 Equity","PX_LAST",20151102,20160115)</f>
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2">
+        <f>BDH("XLY 2/19/16 C81 Equity","PX_LAST",20151201,20160219)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2">
+        <f>BDH("XLY 3/18/16 C76 Equity","PX_LAST",20160104,20160318)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2">
+        <f>BDH("XLY 4/15/16 C74 Equity","PX_LAST",20160201,20160415)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2">
+        <f>BDH("XLY 5/20/16 C76 Equity","PX_LAST",20160301,20160520)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2">
+        <f>BDH("XLY 6/17/16 C79 Equity","PX_LAST",20160401,20160617)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2">
+        <f>BDH("XLY 7/15/16 C80 Equity","PX_LAST",20160502,20160715)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2">
+        <f>BDH("XLY 8/19/16 C79 Equity","PX_LAST",20160601,20160819)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2">
+        <f>BDH("XLY 9/16/16 C78 Equity","PX_LAST",20160701,20160916)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2">
+        <f>BDH("XLY 10/21/16 C81 Equity","PX_LAST",20160801,20161021)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2">
+        <f>BDH("XLY 11/18/16 C80 Equity","PX_LAST",20160901,20161118)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2">
+        <f>BDH("XLY 12/16/16 C79 Equity","PX_LAST",20161003,20161216)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2">
+        <f>BDH("XLY 1/20/17 C77 Equity","PX_LAST",20161101,20170120)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2">
+        <f>BDH("XLY 2/17/17 C81 Equity","PX_LAST",20161201,20170217)</f>
+        <v/>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2">
+        <f>BDH("XLY 3/17/17 C81 Equity","PX_LAST",20170103,20170317)</f>
+        <v/>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2">
+        <f>BDH("XLY 4/21/17 C84 Equity","PX_LAST",20170201,20170421)</f>
+        <v/>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2">
+        <f>BDH("XLY 5/19/17 C87 Equity","PX_LAST",20170301,20170519)</f>
+        <v/>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2">
+        <f>BDH("XLY 6/16/17 C87 Equity","PX_LAST",20170403,20170616)</f>
+        <v/>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2">
+        <f>BDH("XLY 7/21/17 C90 Equity","PX_LAST",20170501,20170721)</f>
+        <v/>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2">
+        <f>BDH("XLY 8/18/17 C91 Equity","PX_LAST",20170601,20170818)</f>
+        <v/>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2">
+        <f>BDH("XLY 9/15/17 C89 Equity","PX_LAST",20170703,20170915)</f>
+        <v/>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2">
+        <f>BDH("XLY 10/20/17 C91 Equity","PX_LAST",20170801,20171020)</f>
+        <v/>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2">
+        <f>BDH("XLY 11/17/17 C90 Equity","PX_LAST",20170901,20171117)</f>
+        <v/>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2">
+        <f>BDH("XLY 12/15/17 C90 Equity","PX_LAST",20171002,20171215)</f>
+        <v/>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2">
+        <f>BDH("XLY 1/19/18 C92 Equity","PX_LAST",20171101,20180119)</f>
+        <v/>
+      </c>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2">
+        <f>BDH("XLY 2/16/18 C96 Equity","PX_LAST",20171201,20180216)</f>
+        <v/>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2">
+        <f>BDH("XLY 3/16/18 C100 Equity","PX_LAST",20180102,20180316)</f>
+        <v/>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2">
+        <f>BDH("XLY 4/20/18 C106 Equity","PX_LAST",20180201,20180420)</f>
+        <v/>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2">
+        <f>BDH("XLY 5/18/18 C102 Equity","PX_LAST",20180301,20180518)</f>
+        <v/>
+      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2">
+        <f>BDH("XLY 6/15/18 C98 Equity","PX_LAST",20180402,20180615)</f>
+        <v/>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2">
+        <f>BDH("XLY 7/20/18 C103 Equity","PX_LAST",20180501,20180720)</f>
+        <v/>
+      </c>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2">
+        <f>BDH("XLY 8/17/18 C106 Equity","PX_LAST",20180601,20180817)</f>
+        <v/>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2">
+        <f>BDH("XLY 9/21/18 C109 Equity","PX_LAST",20180702,20180921)</f>
+        <v/>
+      </c>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2">
+        <f>BDH("XLY 10/19/18 C110 Equity","PX_LAST",20180801,20181019)</f>
+        <v/>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2">
+        <f>BDH("XLY 11/16/18 C117 Equity","PX_LAST",20180904,20181116)</f>
+        <v/>
+      </c>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2">
+        <f>BDH("XLY 12/21/18 C116 Equity","PX_LAST",20181001,20181221)</f>
+        <v/>
+      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2">
+        <f>BDH("XLY 1/18/19 C107 Equity","PX_LAST",20181101,20190118)</f>
+        <v/>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2">
+        <f>BDH("XLY 2/15/19 C110 Equity","PX_LAST",20181203,20190215)</f>
+        <v/>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2">
+        <f>BDH("XLY 3/15/19 C99 Equity","PX_LAST",20190102,20190315)</f>
+        <v/>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2">
+        <f>BDH("XLY 4/18/19 C107 Equity","PX_LAST",20190201,20190418)</f>
+        <v/>
+      </c>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2">
+        <f>BDH("XLY 5/17/19 C111 Equity","PX_LAST",20190301,20190517)</f>
+        <v/>
+      </c>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2">
+        <f>BDH("XLY 6/21/19 C115 Equity","PX_LAST",20190401,20190621)</f>
+        <v/>
+      </c>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2">
+        <f>BDH("XLY 7/19/19 C118 Equity","PX_LAST",20190501,20190719)</f>
+        <v/>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2">
+        <f>BDH("XLY 8/16/19 C110 Equity","PX_LAST",20190603,20190816)</f>
+        <v/>
+      </c>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2">
+        <f>BDH("XLY 9/20/19 C120 Equity","PX_LAST",20190701,20190920)</f>
+        <v/>
+      </c>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2">
+        <f>BDH("XLY 10/18/19 C119 Equity","PX_LAST",20190801,20191018)</f>
+        <v/>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2">
+        <f>BDH("XLY 11/15/19 C119 Equity","PX_LAST",20190903,20191115)</f>
+        <v/>
+      </c>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2">
+        <f>BDH("XLY 12/20/19 C119 Equity","PX_LAST",20191001,20191220)</f>
+        <v/>
+      </c>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2">
+        <f>BDH("XLY 1/17/20 C121 Equity","PX_LAST",20191101,20200117)</f>
+        <v/>
+      </c>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2">
+        <f>BDH("XLY 2/21/20 C121 Equity","PX_LAST",20191202,20200221)</f>
+        <v/>
+      </c>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2">
+        <f>BDH("XLY 3/20/20 C126 Equity","PX_LAST",20200102,20200320)</f>
+        <v/>
+      </c>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2">
+        <f>BDH("XLY 4/17/20 C126 Equity","PX_LAST",20200203,20200417)</f>
+        <v/>
+      </c>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2">
+        <f>BDH("XLY 5/15/20 C119 Equity","PX_LAST",20200302,20200515)</f>
+        <v/>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2">
+        <f>BDH("XLY 6/19/20 C93 Equity","PX_LAST",20200401,20200619)</f>
+        <v/>
+      </c>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2">
+        <f>BDH("XLY 7/17/20 C112 Equity","PX_LAST",20200501,20200717)</f>
+        <v/>
+      </c>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2">
+        <f>BDH("XLY 8/21/20 C125 Equity","PX_LAST",20200601,20200821)</f>
+        <v/>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2">
+        <f>BDH("XLY 9/18/20 C129 Equity","PX_LAST",20200701,20200918)</f>
+        <v/>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2">
+        <f>BDH("XLY 10/16/20 C136 Equity","PX_LAST",20200803,20201016)</f>
+        <v/>
+      </c>
+      <c r="EG2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/20/15 P71</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/17/15 P70</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/15/15 P76</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/19/15 P75</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/17/15 P76</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/21/15 P76</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/18/15 P77</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/16/15 P79</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 11/20/15 P73</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 12/18/15 P74</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr"/>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 1/15/16 P81</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 2/19/16 P81</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/18/16 P76</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr"/>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/15/16 P74</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/20/16 P76</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr"/>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/17/16 P79</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/15/16 P80</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr"/>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/19/16 P79</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr"/>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/16/16 P78</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr"/>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/21/16 P81</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 11/18/16 P80</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr"/>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 12/16/16 P79</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr"/>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 1/20/17 P77</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 2/17/17 P81</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/17/17 P81</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr"/>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/21/17 P84</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr"/>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/19/17 P87</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr"/>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/16/17 P87</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/21/17 P90</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr"/>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/18/17 P91</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr"/>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/15/17 P89</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr"/>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/20/17 P91</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr"/>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 11/17/17 P90</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr"/>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 12/15/17 P90</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr"/>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 1/19/18 P92</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr"/>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 2/16/18 P96</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr"/>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/16/18 P100</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr"/>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/20/18 P106</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr"/>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/18/18 P102</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr"/>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/15/18 P98</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/20/18 P103</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr"/>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/17/18 P106</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr"/>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/21/18 P109</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr"/>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/19/18 P110</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr"/>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 11/16/18 P117</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr"/>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 12/21/18 P116</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr"/>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 1/18/19 P107</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr"/>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 2/15/19 P110</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr"/>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/15/19 P99</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr"/>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/18/19 P107</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr"/>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/17/19 P111</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr"/>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/21/19 P115</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr"/>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/19/19 P118</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr"/>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/16/19 P110</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr"/>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/20/19 P120</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr"/>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/18/19 P119</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr"/>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 11/15/19 P119</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr"/>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 12/20/19 P119</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr"/>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 1/17/20 P121</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr"/>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 2/21/20 P121</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr"/>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 3/20/20 P126</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr"/>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 4/17/20 P126</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr"/>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 5/15/20 P119</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr"/>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 6/19/20 P93</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr"/>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 7/17/20 P112</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr"/>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 8/21/20 P125</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr"/>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 9/18/20 P129</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr"/>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>XLY 10/16/20 P136</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>BDH("XLY 3/20/15 P71 Equity","PX_LAST",20150102,20150320)</f>
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2">
+        <f>BDH("XLY 4/17/15 P70 Equity","PX_LAST",20150202,20150417)</f>
+        <v/>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2">
+        <f>BDH("XLY 5/15/15 P76 Equity","PX_LAST",20150302,20150515)</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2">
+        <f>BDH("XLY 6/19/15 P75 Equity","PX_LAST",20150401,20150619)</f>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2">
+        <f>BDH("XLY 7/17/15 P76 Equity","PX_LAST",20150501,20150717)</f>
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2">
+        <f>BDH("XLY 8/21/15 P76 Equity","PX_LAST",20150601,20150821)</f>
+        <v/>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2">
+        <f>BDH("XLY 9/18/15 P77 Equity","PX_LAST",20150701,20150918)</f>
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2">
+        <f>BDH("XLY 10/16/15 P79 Equity","PX_LAST",20150803,20151016)</f>
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2">
+        <f>BDH("XLY 11/20/15 P73 Equity","PX_LAST",20150901,20151120)</f>
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2">
+        <f>BDH("XLY 12/18/15 P74 Equity","PX_LAST",20151001,20151218)</f>
+        <v/>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2">
+        <f>BDH("XLY 1/15/16 P81 Equity","PX_LAST",20151102,20160115)</f>
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2">
+        <f>BDH("XLY 2/19/16 P81 Equity","PX_LAST",20151201,20160219)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2">
+        <f>BDH("XLY 3/18/16 P76 Equity","PX_LAST",20160104,20160318)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2">
+        <f>BDH("XLY 4/15/16 P74 Equity","PX_LAST",20160201,20160415)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2">
+        <f>BDH("XLY 5/20/16 P76 Equity","PX_LAST",20160301,20160520)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2">
+        <f>BDH("XLY 6/17/16 P79 Equity","PX_LAST",20160401,20160617)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2">
+        <f>BDH("XLY 7/15/16 P80 Equity","PX_LAST",20160502,20160715)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2">
+        <f>BDH("XLY 8/19/16 P79 Equity","PX_LAST",20160601,20160819)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2">
+        <f>BDH("XLY 9/16/16 P78 Equity","PX_LAST",20160701,20160916)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2">
+        <f>BDH("XLY 10/21/16 P81 Equity","PX_LAST",20160801,20161021)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2">
+        <f>BDH("XLY 11/18/16 P80 Equity","PX_LAST",20160901,20161118)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2">
+        <f>BDH("XLY 12/16/16 P79 Equity","PX_LAST",20161003,20161216)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2">
+        <f>BDH("XLY 1/20/17 P77 Equity","PX_LAST",20161101,20170120)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2">
+        <f>BDH("XLY 2/17/17 P81 Equity","PX_LAST",20161201,20170217)</f>
+        <v/>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2">
+        <f>BDH("XLY 3/17/17 P81 Equity","PX_LAST",20170103,20170317)</f>
+        <v/>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2">
+        <f>BDH("XLY 4/21/17 P84 Equity","PX_LAST",20170201,20170421)</f>
+        <v/>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2">
+        <f>BDH("XLY 5/19/17 P87 Equity","PX_LAST",20170301,20170519)</f>
+        <v/>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2">
+        <f>BDH("XLY 6/16/17 P87 Equity","PX_LAST",20170403,20170616)</f>
+        <v/>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2">
+        <f>BDH("XLY 7/21/17 P90 Equity","PX_LAST",20170501,20170721)</f>
+        <v/>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2">
+        <f>BDH("XLY 8/18/17 P91 Equity","PX_LAST",20170601,20170818)</f>
+        <v/>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2">
+        <f>BDH("XLY 9/15/17 P89 Equity","PX_LAST",20170703,20170915)</f>
+        <v/>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2">
+        <f>BDH("XLY 10/20/17 P91 Equity","PX_LAST",20170801,20171020)</f>
+        <v/>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2">
+        <f>BDH("XLY 11/17/17 P90 Equity","PX_LAST",20170901,20171117)</f>
+        <v/>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2">
+        <f>BDH("XLY 12/15/17 P90 Equity","PX_LAST",20171002,20171215)</f>
+        <v/>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2">
+        <f>BDH("XLY 1/19/18 P92 Equity","PX_LAST",20171101,20180119)</f>
+        <v/>
+      </c>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2">
+        <f>BDH("XLY 2/16/18 P96 Equity","PX_LAST",20171201,20180216)</f>
+        <v/>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2">
+        <f>BDH("XLY 3/16/18 P100 Equity","PX_LAST",20180102,20180316)</f>
+        <v/>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2">
+        <f>BDH("XLY 4/20/18 P106 Equity","PX_LAST",20180201,20180420)</f>
+        <v/>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2">
+        <f>BDH("XLY 5/18/18 P102 Equity","PX_LAST",20180301,20180518)</f>
+        <v/>
+      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2">
+        <f>BDH("XLY 6/15/18 P98 Equity","PX_LAST",20180402,20180615)</f>
+        <v/>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2">
+        <f>BDH("XLY 7/20/18 P103 Equity","PX_LAST",20180501,20180720)</f>
+        <v/>
+      </c>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2">
+        <f>BDH("XLY 8/17/18 P106 Equity","PX_LAST",20180601,20180817)</f>
+        <v/>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2">
+        <f>BDH("XLY 9/21/18 P109 Equity","PX_LAST",20180702,20180921)</f>
+        <v/>
+      </c>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2">
+        <f>BDH("XLY 10/19/18 P110 Equity","PX_LAST",20180801,20181019)</f>
+        <v/>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2">
+        <f>BDH("XLY 11/16/18 P117 Equity","PX_LAST",20180904,20181116)</f>
+        <v/>
+      </c>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2">
+        <f>BDH("XLY 12/21/18 P116 Equity","PX_LAST",20181001,20181221)</f>
+        <v/>
+      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2">
+        <f>BDH("XLY 1/18/19 P107 Equity","PX_LAST",20181101,20190118)</f>
+        <v/>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2">
+        <f>BDH("XLY 2/15/19 P110 Equity","PX_LAST",20181203,20190215)</f>
+        <v/>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2">
+        <f>BDH("XLY 3/15/19 P99 Equity","PX_LAST",20190102,20190315)</f>
+        <v/>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2">
+        <f>BDH("XLY 4/18/19 P107 Equity","PX_LAST",20190201,20190418)</f>
+        <v/>
+      </c>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2">
+        <f>BDH("XLY 5/17/19 P111 Equity","PX_LAST",20190301,20190517)</f>
+        <v/>
+      </c>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2">
+        <f>BDH("XLY 6/21/19 P115 Equity","PX_LAST",20190401,20190621)</f>
+        <v/>
+      </c>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2">
+        <f>BDH("XLY 7/19/19 P118 Equity","PX_LAST",20190501,20190719)</f>
+        <v/>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2">
+        <f>BDH("XLY 8/16/19 P110 Equity","PX_LAST",20190603,20190816)</f>
+        <v/>
+      </c>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2">
+        <f>BDH("XLY 9/20/19 P120 Equity","PX_LAST",20190701,20190920)</f>
+        <v/>
+      </c>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2">
+        <f>BDH("XLY 10/18/19 P119 Equity","PX_LAST",20190801,20191018)</f>
+        <v/>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2">
+        <f>BDH("XLY 11/15/19 P119 Equity","PX_LAST",20190903,20191115)</f>
+        <v/>
+      </c>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2">
+        <f>BDH("XLY 12/20/19 P119 Equity","PX_LAST",20191001,20191220)</f>
+        <v/>
+      </c>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2">
+        <f>BDH("XLY 1/17/20 P121 Equity","PX_LAST",20191101,20200117)</f>
+        <v/>
+      </c>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2">
+        <f>BDH("XLY 2/21/20 P121 Equity","PX_LAST",20191202,20200221)</f>
+        <v/>
+      </c>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2">
+        <f>BDH("XLY 3/20/20 P126 Equity","PX_LAST",20200102,20200320)</f>
+        <v/>
+      </c>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2">
+        <f>BDH("XLY 4/17/20 P126 Equity","PX_LAST",20200203,20200417)</f>
+        <v/>
+      </c>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2">
+        <f>BDH("XLY 5/15/20 P119 Equity","PX_LAST",20200302,20200515)</f>
+        <v/>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2">
+        <f>BDH("XLY 6/19/20 P93 Equity","PX_LAST",20200401,20200619)</f>
+        <v/>
+      </c>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2">
+        <f>BDH("XLY 7/17/20 P112 Equity","PX_LAST",20200501,20200717)</f>
+        <v/>
+      </c>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2">
+        <f>BDH("XLY 8/21/20 P125 Equity","PX_LAST",20200601,20200821)</f>
+        <v/>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2">
+        <f>BDH("XLY 9/18/20 P129 Equity","PX_LAST",20200701,20200918)</f>
+        <v/>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2">
+        <f>BDH("XLY 10/16/20 P136 Equity","PX_LAST",20200803,20201016)</f>
+        <v/>
+      </c>
+      <c r="EG2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/20/15 C68</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/17/15 C69</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/15/15 C72</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/19/15 C71</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/17/15 C72</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/21/15 C75</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/18/15 C75</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/16/15 C76</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 11/20/15 C68</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 12/18/15 C66</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr"/>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 1/15/16 C72</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 2/19/16 C72</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/18/16 C70</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr"/>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/15/16 C66</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/20/16 C67</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr"/>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/17/16 C68</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/15/16 C70</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr"/>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/19/16 C71</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr"/>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/16/16 C72</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr"/>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/21/16 C75</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 11/18/16 C72</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr"/>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 12/16/16 C72</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr"/>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 1/20/17 C67</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr"/>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 2/17/17 C68</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/17/17 C69</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr"/>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/21/17 C71</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr"/>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/19/17 C75</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr"/>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/16/17 C74</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/21/17 C75</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr"/>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/18/17 C76</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr"/>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/15/17 C79</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr"/>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/20/17 C79</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr"/>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 11/17/17 C81</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr"/>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 12/15/17 C82</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr"/>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 1/19/18 C81</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr"/>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 2/16/18 C83</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr"/>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/16/18 C83</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr"/>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/20/18 C88</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr"/>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/18/18 C82</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr"/>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/15/18 C79</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/20/18 C82</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr"/>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/17/18 C83</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr"/>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/21/18 C83</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr"/>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/19/18 C88</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr"/>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 11/16/18 C92</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr"/>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 12/21/18 C95</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr"/>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 1/18/19 C89</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr"/>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 2/15/19 C95</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr"/>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/15/19 C85</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr"/>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/18/19 C90</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr"/>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/17/19 C92</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr"/>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/21/19 C91</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr"/>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/19/19 C89</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr"/>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/16/19 C87</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr"/>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/20/19 C93</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr"/>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/18/19 C91</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr"/>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 11/15/19 C90</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr"/>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 12/20/19 C89</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr"/>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 1/17/20 C94</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr"/>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 2/21/20 C99</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr"/>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 3/20/20 C102</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr"/>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 4/17/20 C100</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr"/>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 5/15/20 C96</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr"/>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 6/19/20 C85</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr"/>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 7/17/20 C97</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr"/>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 8/21/20 C101</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr"/>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 9/18/20 C100</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr"/>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>XLV 10/16/20 C106</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>BDH("XLV 3/20/15 C68 Equity","PX_LAST",20150102,20150320)</f>
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2">
+        <f>BDH("XLV 4/17/15 C69 Equity","PX_LAST",20150202,20150417)</f>
+        <v/>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2">
+        <f>BDH("XLV 5/15/15 C72 Equity","PX_LAST",20150302,20150515)</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2">
+        <f>BDH("XLV 6/19/15 C71 Equity","PX_LAST",20150401,20150619)</f>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2">
+        <f>BDH("XLV 7/17/15 C72 Equity","PX_LAST",20150501,20150717)</f>
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2">
+        <f>BDH("XLV 8/21/15 C75 Equity","PX_LAST",20150601,20150821)</f>
+        <v/>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2">
+        <f>BDH("XLV 9/18/15 C75 Equity","PX_LAST",20150701,20150918)</f>
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2">
+        <f>BDH("XLV 10/16/15 C76 Equity","PX_LAST",20150803,20151016)</f>
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2">
+        <f>BDH("XLV 11/20/15 C68 Equity","PX_LAST",20150901,20151120)</f>
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2">
+        <f>BDH("XLV 12/18/15 C66 Equity","PX_LAST",20151001,20151218)</f>
+        <v/>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2">
+        <f>BDH("XLV 1/15/16 C72 Equity","PX_LAST",20151102,20160115)</f>
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2">
+        <f>BDH("XLV 2/19/16 C72 Equity","PX_LAST",20151201,20160219)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2">
+        <f>BDH("XLV 3/18/16 C70 Equity","PX_LAST",20160104,20160318)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2">
+        <f>BDH("XLV 4/15/16 C66 Equity","PX_LAST",20160201,20160415)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2">
+        <f>BDH("XLV 5/20/16 C67 Equity","PX_LAST",20160301,20160520)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2">
+        <f>BDH("XLV 6/17/16 C68 Equity","PX_LAST",20160401,20160617)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2">
+        <f>BDH("XLV 7/15/16 C70 Equity","PX_LAST",20160502,20160715)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2">
+        <f>BDH("XLV 8/19/16 C71 Equity","PX_LAST",20160601,20160819)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2">
+        <f>BDH("XLV 9/16/16 C72 Equity","PX_LAST",20160701,20160916)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2">
+        <f>BDH("XLV 10/21/16 C75 Equity","PX_LAST",20160801,20161021)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2">
+        <f>BDH("XLV 11/18/16 C72 Equity","PX_LAST",20160901,20161118)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2">
+        <f>BDH("XLV 12/16/16 C72 Equity","PX_LAST",20161003,20161216)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2">
+        <f>BDH("XLV 1/20/17 C67 Equity","PX_LAST",20161101,20170120)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2">
+        <f>BDH("XLV 2/17/17 C68 Equity","PX_LAST",20161201,20170217)</f>
+        <v/>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2">
+        <f>BDH("XLV 3/17/17 C69 Equity","PX_LAST",20170103,20170317)</f>
+        <v/>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2">
+        <f>BDH("XLV 4/21/17 C71 Equity","PX_LAST",20170201,20170421)</f>
+        <v/>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2">
+        <f>BDH("XLV 5/19/17 C75 Equity","PX_LAST",20170301,20170519)</f>
+        <v/>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2">
+        <f>BDH("XLV 6/16/17 C74 Equity","PX_LAST",20170403,20170616)</f>
+        <v/>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2">
+        <f>BDH("XLV 7/21/17 C75 Equity","PX_LAST",20170501,20170721)</f>
+        <v/>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2">
+        <f>BDH("XLV 8/18/17 C76 Equity","PX_LAST",20170601,20170818)</f>
+        <v/>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2">
+        <f>BDH("XLV 9/15/17 C79 Equity","PX_LAST",20170703,20170915)</f>
+        <v/>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2">
+        <f>BDH("XLV 10/20/17 C79 Equity","PX_LAST",20170801,20171020)</f>
+        <v/>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2">
+        <f>BDH("XLV 11/17/17 C81 Equity","PX_LAST",20170901,20171117)</f>
+        <v/>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2">
+        <f>BDH("XLV 12/15/17 C82 Equity","PX_LAST",20171002,20171215)</f>
+        <v/>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2">
+        <f>BDH("XLV 1/19/18 C81 Equity","PX_LAST",20171101,20180119)</f>
+        <v/>
+      </c>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2">
+        <f>BDH("XLV 2/16/18 C83 Equity","PX_LAST",20171201,20180216)</f>
+        <v/>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2">
+        <f>BDH("XLV 3/16/18 C83 Equity","PX_LAST",20180102,20180316)</f>
+        <v/>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2">
+        <f>BDH("XLV 4/20/18 C88 Equity","PX_LAST",20180201,20180420)</f>
+        <v/>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2">
+        <f>BDH("XLV 5/18/18 C82 Equity","PX_LAST",20180301,20180518)</f>
+        <v/>
+      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2">
+        <f>BDH("XLV 6/15/18 C79 Equity","PX_LAST",20180402,20180615)</f>
+        <v/>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2">
+        <f>BDH("XLV 7/20/18 C82 Equity","PX_LAST",20180501,20180720)</f>
+        <v/>
+      </c>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2">
+        <f>BDH("XLV 8/17/18 C83 Equity","PX_LAST",20180601,20180817)</f>
+        <v/>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2">
+        <f>BDH("XLV 9/21/18 C83 Equity","PX_LAST",20180702,20180921)</f>
+        <v/>
+      </c>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2">
+        <f>BDH("XLV 10/19/18 C88 Equity","PX_LAST",20180801,20181019)</f>
+        <v/>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2">
+        <f>BDH("XLV 11/16/18 C92 Equity","PX_LAST",20180904,20181116)</f>
+        <v/>
+      </c>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2">
+        <f>BDH("XLV 12/21/18 C95 Equity","PX_LAST",20181001,20181221)</f>
+        <v/>
+      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2">
+        <f>BDH("XLV 1/18/19 C89 Equity","PX_LAST",20181101,20190118)</f>
+        <v/>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2">
+        <f>BDH("XLV 2/15/19 C95 Equity","PX_LAST",20181203,20190215)</f>
+        <v/>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2">
+        <f>BDH("XLV 3/15/19 C85 Equity","PX_LAST",20190102,20190315)</f>
+        <v/>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2">
+        <f>BDH("XLV 4/18/19 C90 Equity","PX_LAST",20190201,20190418)</f>
+        <v/>
+      </c>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2">
+        <f>BDH("XLV 5/17/19 C92 Equity","PX_LAST",20190301,20190517)</f>
+        <v/>
+      </c>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2">
+        <f>BDH("XLV 6/21/19 C91 Equity","PX_LAST",20190401,20190621)</f>
+        <v/>
+      </c>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2">
+        <f>BDH("XLV 7/19/19 C89 Equity","PX_LAST",20190501,20190719)</f>
+        <v/>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2">
+        <f>BDH("XLV 8/16/19 C87 Equity","PX_LAST",20190603,20190816)</f>
+        <v/>
+      </c>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2">
+        <f>BDH("XLV 9/20/19 C93 Equity","PX_LAST",20190701,20190920)</f>
+        <v/>
+      </c>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2">
+        <f>BDH("XLV 10/18/19 C91 Equity","PX_LAST",20190801,20191018)</f>
+        <v/>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2">
+        <f>BDH("XLV 11/15/19 C90 Equity","PX_LAST",20190903,20191115)</f>
+        <v/>
+      </c>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2">
+        <f>BDH("XLV 12/20/19 C89 Equity","PX_LAST",20191001,20191220)</f>
+        <v/>
+      </c>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2">
+        <f>BDH("XLV 1/17/20 C94 Equity","PX_LAST",20191101,20200117)</f>
+        <v/>
+      </c>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2">
+        <f>BDH("XLV 2/21/20 C99 Equity","PX_LAST",20191202,20200221)</f>
+        <v/>
+      </c>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2">
+        <f>BDH("XLV 3/20/20 C102 Equity","PX_LAST",20200102,20200320)</f>
+        <v/>
+      </c>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2">
+        <f>BDH("XLV 4/17/20 C100 Equity","PX_LAST",20200203,20200417)</f>
+        <v/>
+      </c>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2">
+        <f>BDH("XLV 5/15/20 C96 Equity","PX_LAST",20200302,20200515)</f>
+        <v/>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2">
+        <f>BDH("XLV 6/19/20 C85 Equity","PX_LAST",20200401,20200619)</f>
+        <v/>
+      </c>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2">
+        <f>BDH("XLV 7/17/20 C97 Equity","PX_LAST",20200501,20200717)</f>
+        <v/>
+      </c>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2">
+        <f>BDH("XLV 8/21/20 C101 Equity","PX_LAST",20200601,20200821)</f>
+        <v/>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2">
+        <f>BDH("XLV 9/18/20 C100 Equity","PX_LAST",20200701,20200918)</f>
+        <v/>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2">
+        <f>BDH("XLV 10/16/20 C106 Equity","PX_LAST",20200803,20201016)</f>
         <v/>
       </c>
       <c r="EG2" t="inlineStr"/>
